--- a/StockEntryJune25.xlsx
+++ b/StockEntryJune25.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="358">
   <si>
     <t>Name</t>
   </si>
@@ -1008,6 +1008,87 @@
   </si>
   <si>
     <t>taken on 14/06/25</t>
+  </si>
+  <si>
+    <t>23.1gm payal sold+packet</t>
+  </si>
+  <si>
+    <t>18.9gm payal added from exchange+packet</t>
+  </si>
+  <si>
+    <t>6.9gm tabiz sold</t>
+  </si>
+  <si>
+    <t>24.2gm chain sold</t>
+  </si>
+  <si>
+    <t>17.9gm card coin sold</t>
+  </si>
+  <si>
+    <t>3.5gm locket sold</t>
+  </si>
+  <si>
+    <t>68+7+19</t>
+  </si>
+  <si>
+    <t>1pc gents ring sold</t>
+  </si>
+  <si>
+    <t>taken on 16/06/25</t>
+  </si>
+  <si>
+    <t>14,15-06-2025</t>
+  </si>
+  <si>
+    <t>19+65</t>
+  </si>
+  <si>
+    <t>0.5mg packet added</t>
+  </si>
+  <si>
+    <t>5.3gm sold</t>
+  </si>
+  <si>
+    <t>38.6gm sold</t>
+  </si>
+  <si>
+    <t>59.2gm sold</t>
+  </si>
+  <si>
+    <t>57.6gm move to d-3</t>
+  </si>
+  <si>
+    <t>24.5gm move to d-7+packet</t>
+  </si>
+  <si>
+    <t>36.5gm move tod-6</t>
+  </si>
+  <si>
+    <t>59.7gm add from old return</t>
+  </si>
+  <si>
+    <t>1pair sold(29.9gm)</t>
+  </si>
+  <si>
+    <t>1pair added from b-19(56.9gm)</t>
+  </si>
+  <si>
+    <t>1pc sold(67.5gm)</t>
+  </si>
+  <si>
+    <t>1pc added from b-7(36.2gm)</t>
+  </si>
+  <si>
+    <t>1pc key ring sold(25.8gm)</t>
+  </si>
+  <si>
+    <t>1pc key ring added from b-21(19.1gm)</t>
+  </si>
+  <si>
+    <t>2pc s farua sold(8.3gm,12.7gm)</t>
+  </si>
+  <si>
+    <t>taken on 17/06/25</t>
   </si>
 </sst>
 </file>
@@ -1420,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1489"/>
+  <dimension ref="A1:G1761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1348" workbookViewId="0">
-      <selection activeCell="E1362" sqref="E1362"/>
+    <sheetView tabSelected="1" topLeftCell="A1548" workbookViewId="0">
+      <selection activeCell="D1552" sqref="D1552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24520,12 +24601,18 @@
       <c r="C1404" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D1404" s="7"/>
-      <c r="E1404" s="7"/>
-      <c r="F1404" s="7"/>
+      <c r="D1404" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1404" s="7">
+        <v>1591.4</v>
+      </c>
+      <c r="F1404" s="7" t="s">
+        <v>332</v>
+      </c>
       <c r="G1404">
         <f t="shared" si="93"/>
-        <v>1595.6</v>
+        <v>4.1999999999998181</v>
       </c>
     </row>
     <row r="1405" spans="1:7" ht="15.75">
@@ -24646,12 +24733,16 @@
       <c r="C1411" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D1411" s="7"/>
-      <c r="E1411" s="7"/>
+      <c r="D1411" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1411" s="7">
+        <v>2840.4</v>
+      </c>
       <c r="F1411" s="11"/>
       <c r="G1411">
         <f t="shared" si="93"/>
-        <v>2864.6</v>
+        <v>24.199999999999818</v>
       </c>
     </row>
     <row r="1412" spans="1:7" ht="15.75">
@@ -24682,12 +24773,16 @@
       <c r="C1413" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D1413" s="7"/>
-      <c r="E1413" s="7"/>
+      <c r="D1413" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1413" s="7">
+        <v>819.5</v>
+      </c>
       <c r="F1413" s="7"/>
       <c r="G1413">
         <f t="shared" si="93"/>
-        <v>837.4</v>
+        <v>17.899999999999977</v>
       </c>
     </row>
     <row r="1414" spans="1:7" ht="15.75">
@@ -24754,12 +24849,16 @@
       <c r="C1417" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D1417" s="7"/>
-      <c r="E1417" s="7"/>
+      <c r="D1417" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E1417" s="7">
+        <v>622.29999999999995</v>
+      </c>
       <c r="F1417" s="11"/>
       <c r="G1417">
         <f t="shared" si="93"/>
-        <v>629.20000000000005</v>
+        <v>6.9000000000000909</v>
       </c>
     </row>
     <row r="1418" spans="1:7" ht="15.75">
@@ -24898,12 +24997,16 @@
       <c r="C1425" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D1425" s="7"/>
-      <c r="E1425" s="7"/>
+      <c r="D1425" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1425" s="7">
+        <v>798.2</v>
+      </c>
       <c r="F1425" s="7"/>
       <c r="G1425">
         <f t="shared" si="93"/>
-        <v>801.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="1426" spans="1:7" ht="15.75">
@@ -25133,8 +25236,12 @@
       <c r="C1439" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D1439" s="10"/>
-      <c r="E1439" s="10"/>
+      <c r="D1439" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="E1439" s="10" t="s">
+        <v>337</v>
+      </c>
       <c r="F1439" s="10"/>
       <c r="G1439" t="e">
         <f t="shared" ref="G1439:G1442" si="94">(B1439 - E1439)</f>
@@ -25897,6 +26004,4473 @@
       </c>
       <c r="G1489">
         <f t="shared" si="98"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:7" ht="18.75">
+      <c r="A1495" s="3"/>
+      <c r="B1495" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1495" s="3"/>
+      <c r="D1495" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1495" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1495" s="6"/>
+    </row>
+    <row r="1496" spans="1:7" ht="15.75">
+      <c r="A1496" s="7">
+        <v>1</v>
+      </c>
+      <c r="B1496" s="7">
+        <v>51</v>
+      </c>
+      <c r="C1496" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1496" s="7"/>
+      <c r="E1496" s="7">
+        <v>51</v>
+      </c>
+      <c r="F1496" s="7"/>
+      <c r="G1496">
+        <f>(B1496 - E1496)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:7" ht="15.75">
+      <c r="A1497" s="7">
+        <v>2</v>
+      </c>
+      <c r="B1497" s="7">
+        <v>13</v>
+      </c>
+      <c r="C1497" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1497" s="7">
+        <v>13</v>
+      </c>
+      <c r="F1497" s="7"/>
+      <c r="G1497">
+        <f t="shared" ref="G1497:G1517" si="99">(B1497 - E1497)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:7" ht="15.75">
+      <c r="A1498" s="7">
+        <v>3</v>
+      </c>
+      <c r="B1498" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1498" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1498" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1498" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1498" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1498" t="e">
+        <f t="shared" si="99"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:7" ht="15.75">
+      <c r="A1499" s="7">
+        <v>4</v>
+      </c>
+      <c r="B1499" s="7">
+        <v>13</v>
+      </c>
+      <c r="C1499" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1499" s="7"/>
+      <c r="E1499" s="7">
+        <v>13</v>
+      </c>
+      <c r="F1499" s="7"/>
+      <c r="G1499">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:7" ht="15.75">
+      <c r="A1500" s="7">
+        <v>5</v>
+      </c>
+      <c r="B1500" s="7">
+        <v>10</v>
+      </c>
+      <c r="C1500" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1500" s="7"/>
+      <c r="E1500" s="7">
+        <v>10</v>
+      </c>
+      <c r="F1500" s="7"/>
+      <c r="G1500">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:7" ht="15.75">
+      <c r="A1501" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1501" s="7">
+        <v>17</v>
+      </c>
+      <c r="C1501" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1501" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E1501" s="7">
+        <v>17</v>
+      </c>
+      <c r="F1501" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1501">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:7" ht="15.75">
+      <c r="A1502" s="7">
+        <v>7</v>
+      </c>
+      <c r="B1502" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1502" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1502" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1502" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1502" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1502" t="e">
+        <f t="shared" si="99"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:7" ht="15.75">
+      <c r="A1503" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1503" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1503" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1503" s="7"/>
+      <c r="E1503" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1503" s="7"/>
+      <c r="G1503" t="e">
+        <f t="shared" si="99"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:7" ht="15.75">
+      <c r="A1504" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1504" s="7">
+        <v>24</v>
+      </c>
+      <c r="C1504" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1504" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1504" s="7"/>
+      <c r="G1504">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:7" ht="15.75">
+      <c r="A1505" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1505" s="7">
+        <v>12</v>
+      </c>
+      <c r="C1505" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1505" s="8"/>
+      <c r="E1505" s="7">
+        <v>12</v>
+      </c>
+      <c r="F1505" s="7"/>
+      <c r="G1505">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:7" ht="15.75">
+      <c r="A1506" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1506" s="7">
+        <v>21</v>
+      </c>
+      <c r="C1506" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1506" s="7"/>
+      <c r="E1506" s="7">
+        <v>21</v>
+      </c>
+      <c r="F1506" s="7"/>
+      <c r="G1506">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:7" ht="15.75">
+      <c r="A1507" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1507" s="7">
+        <v>24</v>
+      </c>
+      <c r="C1507" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1507" s="8"/>
+      <c r="E1507" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1507" s="7"/>
+      <c r="G1507">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:7" ht="15.75">
+      <c r="A1508" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1508" s="7">
+        <v>14</v>
+      </c>
+      <c r="C1508" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1508" s="8"/>
+      <c r="E1508" s="7">
+        <v>14</v>
+      </c>
+      <c r="F1508" s="7"/>
+      <c r="G1508">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:7" ht="15.75">
+      <c r="A1509" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1509" s="7">
+        <v>17</v>
+      </c>
+      <c r="C1509" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1509" s="7">
+        <v>17</v>
+      </c>
+      <c r="F1509" s="7"/>
+      <c r="G1509">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:7" ht="15.75">
+      <c r="A1510" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1510" s="7">
+        <v>22</v>
+      </c>
+      <c r="C1510" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1510" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1510" s="7">
+        <v>20</v>
+      </c>
+      <c r="F1510" s="7"/>
+      <c r="G1510">
+        <f t="shared" si="99"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:7" ht="15.75">
+      <c r="A1511" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1511" s="7">
+        <v>22</v>
+      </c>
+      <c r="C1511" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1511" s="7"/>
+      <c r="E1511" s="7">
+        <v>22</v>
+      </c>
+      <c r="F1511" s="7"/>
+      <c r="G1511">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:7" ht="15.75">
+      <c r="B1512" s="7"/>
+      <c r="E1512" s="7"/>
+      <c r="F1512" s="7"/>
+      <c r="G1512">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:7" ht="15.75">
+      <c r="A1513" s="7"/>
+      <c r="B1513" s="7"/>
+      <c r="C1513" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1513" s="7"/>
+      <c r="F1513" s="7"/>
+      <c r="G1513">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:7" ht="15.75">
+      <c r="A1514" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1514" s="7">
+        <v>6</v>
+      </c>
+      <c r="C1514" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1514" s="7"/>
+      <c r="E1514" s="7">
+        <v>6</v>
+      </c>
+      <c r="F1514" s="7"/>
+      <c r="G1514">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:7" ht="15.75">
+      <c r="A1515" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1515" s="7">
+        <v>5</v>
+      </c>
+      <c r="C1515" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1515" s="7"/>
+      <c r="E1515" s="7">
+        <v>5</v>
+      </c>
+      <c r="F1515" s="7"/>
+      <c r="G1515">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:7" ht="15.75">
+      <c r="A1516" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1516" s="7">
+        <v>4</v>
+      </c>
+      <c r="C1516" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1516" s="7"/>
+      <c r="E1516" s="7">
+        <v>4</v>
+      </c>
+      <c r="F1516" s="7"/>
+      <c r="G1516">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:7" ht="15.75">
+      <c r="A1517" s="7"/>
+      <c r="B1517" s="7"/>
+      <c r="C1517" s="7"/>
+      <c r="D1517" s="7"/>
+      <c r="E1517" s="7"/>
+      <c r="F1517" s="7"/>
+      <c r="G1517">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:7" ht="15.75">
+      <c r="A1518" s="7"/>
+      <c r="B1518" s="7"/>
+      <c r="C1518" s="7"/>
+      <c r="D1518" s="7"/>
+      <c r="E1518" s="7"/>
+      <c r="F1518" s="7"/>
+      <c r="G1518">
+        <f>(B1518 - E1518)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:7" ht="15.75">
+      <c r="A1519" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1519" s="7">
+        <v>18</v>
+      </c>
+      <c r="C1519" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1519" s="7"/>
+      <c r="E1519" s="7">
+        <v>18</v>
+      </c>
+      <c r="F1519" s="7"/>
+      <c r="G1519">
+        <f t="shared" ref="G1519:G1530" si="100">(B1519 - E1519)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:7" ht="15.75">
+      <c r="A1520" s="7"/>
+      <c r="B1520" s="7"/>
+      <c r="C1520" s="7"/>
+      <c r="D1520" s="7"/>
+      <c r="E1520" s="7"/>
+      <c r="F1520" s="7"/>
+      <c r="G1520">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:7" ht="15.75">
+      <c r="B1521" s="7"/>
+      <c r="E1521" s="7"/>
+      <c r="F1521" s="7"/>
+      <c r="G1521">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:7" ht="15.75">
+      <c r="A1522" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1522" s="7">
+        <v>6</v>
+      </c>
+      <c r="C1522" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1522" s="7"/>
+      <c r="E1522" s="7">
+        <v>6</v>
+      </c>
+      <c r="F1522" s="7"/>
+      <c r="G1522">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:7" ht="15.75">
+      <c r="A1523" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1523" s="7">
+        <v>8</v>
+      </c>
+      <c r="C1523" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1523" s="7"/>
+      <c r="E1523" s="7">
+        <v>8</v>
+      </c>
+      <c r="F1523" s="7"/>
+      <c r="G1523">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:7" ht="15.75">
+      <c r="A1524" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1524" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1524" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1524" s="7"/>
+      <c r="E1524" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1524" s="7"/>
+      <c r="G1524" t="e">
+        <f t="shared" si="100"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:7" ht="15.75">
+      <c r="A1525" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1525" s="7">
+        <v>35</v>
+      </c>
+      <c r="C1525" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1525" s="7"/>
+      <c r="E1525" s="7">
+        <v>35</v>
+      </c>
+      <c r="F1525" s="7"/>
+      <c r="G1525">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:7" ht="15.75">
+      <c r="A1526" s="7"/>
+      <c r="B1526" s="7"/>
+      <c r="C1526" s="7"/>
+      <c r="D1526" s="7"/>
+      <c r="E1526" s="7"/>
+      <c r="F1526" s="7"/>
+      <c r="G1526">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:7" ht="15.75">
+      <c r="A1527" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1527" s="7">
+        <v>10</v>
+      </c>
+      <c r="C1527" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1527" s="7"/>
+      <c r="E1527" s="7">
+        <v>10</v>
+      </c>
+      <c r="F1527" s="7"/>
+      <c r="G1527">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:7" ht="15.75">
+      <c r="A1528" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1528" s="7">
+        <v>7</v>
+      </c>
+      <c r="C1528" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1528" s="7"/>
+      <c r="E1528" s="7">
+        <v>7</v>
+      </c>
+      <c r="F1528" s="7"/>
+      <c r="G1528">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:7" ht="15.75">
+      <c r="A1529" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1529" s="7">
+        <v>6</v>
+      </c>
+      <c r="C1529" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1529" s="7"/>
+      <c r="E1529" s="7">
+        <v>6</v>
+      </c>
+      <c r="F1529" s="7"/>
+      <c r="G1529">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:7" ht="15.75">
+      <c r="A1530" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1530" s="7">
+        <v>12</v>
+      </c>
+      <c r="C1530" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1530" s="7"/>
+      <c r="E1530" s="7">
+        <v>12</v>
+      </c>
+      <c r="F1530" s="7"/>
+      <c r="G1530">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:7" ht="15.75">
+      <c r="A1531" s="7"/>
+      <c r="B1531" s="7"/>
+      <c r="C1531" s="7"/>
+      <c r="D1531" s="7"/>
+      <c r="E1531" s="7"/>
+      <c r="F1531" s="7"/>
+    </row>
+    <row r="1532" spans="1:7" ht="15.75">
+      <c r="A1532" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1532" s="7">
+        <v>2</v>
+      </c>
+      <c r="C1532" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1532" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1532" s="7"/>
+      <c r="G1532">
+        <f t="shared" ref="G1532:G1533" si="101">(B1532 - E1532)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:7" ht="15.75">
+      <c r="A1533" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1533" s="7">
+        <v>1</v>
+      </c>
+      <c r="C1533" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1533" s="7">
+        <v>1</v>
+      </c>
+      <c r="F1533" s="7"/>
+      <c r="G1533">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:7" ht="15.75">
+      <c r="A1534" s="7"/>
+      <c r="B1534" s="7"/>
+      <c r="C1534" s="7"/>
+      <c r="E1534" s="7"/>
+      <c r="F1534" s="7"/>
+    </row>
+    <row r="1535" spans="1:7" ht="15.75">
+      <c r="A1535" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1535" s="7"/>
+      <c r="C1535" s="7"/>
+      <c r="E1535" s="7"/>
+      <c r="F1535" s="7"/>
+    </row>
+    <row r="1536" spans="1:7" ht="15.75">
+      <c r="B1536" s="7"/>
+      <c r="C1536" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1536" s="7"/>
+      <c r="E1536" s="7"/>
+      <c r="F1536" s="7"/>
+      <c r="G1536">
+        <f t="shared" ref="G1536:G1573" si="102">(B1536 - E1536)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:7" ht="15.75">
+      <c r="A1537" s="7">
+        <v>1</v>
+      </c>
+      <c r="B1537" s="7">
+        <v>976</v>
+      </c>
+      <c r="C1537" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1537" s="7"/>
+      <c r="E1537" s="7">
+        <v>976.5</v>
+      </c>
+      <c r="F1537" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G1537">
+        <f t="shared" si="102"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:7" ht="15.75">
+      <c r="A1538" s="7">
+        <v>2</v>
+      </c>
+      <c r="B1538" s="7">
+        <v>379.9</v>
+      </c>
+      <c r="C1538" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1538" s="7">
+        <v>379.8</v>
+      </c>
+      <c r="F1538" s="7"/>
+      <c r="G1538">
+        <f t="shared" si="102"/>
+        <v>9.9999999999965894E-2</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:7" ht="15.75">
+      <c r="A1539" s="7">
+        <v>3</v>
+      </c>
+      <c r="B1539" s="7">
+        <v>734.9</v>
+      </c>
+      <c r="C1539" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1539" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1539" s="7">
+        <v>729.6</v>
+      </c>
+      <c r="F1539" s="7"/>
+      <c r="G1539">
+        <f t="shared" si="102"/>
+        <v>5.2999999999999545</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:7" ht="15.75">
+      <c r="A1540" s="7">
+        <v>4</v>
+      </c>
+      <c r="B1540" s="7">
+        <v>1591.4</v>
+      </c>
+      <c r="C1540" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1540" s="7"/>
+      <c r="E1540" s="7">
+        <v>1590.8</v>
+      </c>
+      <c r="F1540" s="7"/>
+      <c r="G1540">
+        <f t="shared" si="102"/>
+        <v>0.60000000000013642</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:7" ht="15.75">
+      <c r="A1541" s="7">
+        <v>5</v>
+      </c>
+      <c r="B1541" s="7">
+        <v>1510.6</v>
+      </c>
+      <c r="C1541" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1541" s="7"/>
+      <c r="E1541" s="7">
+        <v>1510.5</v>
+      </c>
+      <c r="F1541" s="7"/>
+      <c r="G1541">
+        <f t="shared" si="102"/>
+        <v>9.9999999999909051E-2</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:7" ht="15.75">
+      <c r="A1542" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1542" s="7">
+        <v>2516.4</v>
+      </c>
+      <c r="C1542" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1542" s="7"/>
+      <c r="E1542" s="7">
+        <v>2515.9</v>
+      </c>
+      <c r="F1542" s="11"/>
+      <c r="G1542">
+        <f t="shared" si="102"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:7" ht="15.75">
+      <c r="A1543" s="7">
+        <v>7</v>
+      </c>
+      <c r="B1543" s="7">
+        <v>1507.9</v>
+      </c>
+      <c r="C1543" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1543" s="7"/>
+      <c r="E1543" s="7">
+        <v>1471.2</v>
+      </c>
+      <c r="F1543" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="G1543">
+        <f t="shared" si="102"/>
+        <v>36.700000000000045</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:7" ht="15.75">
+      <c r="A1544" s="7">
+        <v>8</v>
+      </c>
+      <c r="B1544" s="7">
+        <v>1787.7</v>
+      </c>
+      <c r="C1544" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1544" s="10"/>
+      <c r="E1544" s="7">
+        <v>1787.7</v>
+      </c>
+      <c r="F1544" s="10"/>
+      <c r="G1544">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:7" ht="15.75">
+      <c r="A1545" s="7">
+        <v>9</v>
+      </c>
+      <c r="B1545" s="7">
+        <v>1586.7</v>
+      </c>
+      <c r="C1545" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1545" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1545" s="7">
+        <v>1548.1</v>
+      </c>
+      <c r="F1545" s="7"/>
+      <c r="G1545">
+        <f t="shared" si="102"/>
+        <v>38.600000000000136</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:7" ht="15.75">
+      <c r="A1546" s="7">
+        <v>10</v>
+      </c>
+      <c r="B1546" s="7">
+        <v>527.79999999999995</v>
+      </c>
+      <c r="C1546" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1546" s="7"/>
+      <c r="E1546" s="7">
+        <v>527.70000000000005</v>
+      </c>
+      <c r="F1546" s="7"/>
+      <c r="G1546">
+        <f t="shared" si="102"/>
+        <v>9.9999999999909051E-2</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:7" ht="15.75">
+      <c r="A1547" s="7">
+        <v>11</v>
+      </c>
+      <c r="B1547" s="7">
+        <v>2840.4</v>
+      </c>
+      <c r="C1547" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1547" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1547" s="7">
+        <v>2781</v>
+      </c>
+      <c r="F1547" s="11"/>
+      <c r="G1547">
+        <f t="shared" si="102"/>
+        <v>59.400000000000091</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:7" ht="15.75">
+      <c r="A1548" s="7">
+        <v>12</v>
+      </c>
+      <c r="B1548" s="7">
+        <v>402.8</v>
+      </c>
+      <c r="C1548" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1548" s="7"/>
+      <c r="E1548" s="7">
+        <v>402.7</v>
+      </c>
+      <c r="F1548" s="7"/>
+      <c r="G1548">
+        <f t="shared" si="102"/>
+        <v>0.10000000000002274</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:7" ht="15.75">
+      <c r="A1549" s="7">
+        <v>13</v>
+      </c>
+      <c r="B1549" s="7">
+        <v>819.5</v>
+      </c>
+      <c r="C1549" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1549" s="7"/>
+      <c r="E1549" s="7">
+        <v>819.1</v>
+      </c>
+      <c r="F1549" s="7"/>
+      <c r="G1549">
+        <f t="shared" si="102"/>
+        <v>0.39999999999997726</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:7" ht="15.75">
+      <c r="A1550" s="7">
+        <v>14</v>
+      </c>
+      <c r="B1550" s="7">
+        <v>925.9</v>
+      </c>
+      <c r="C1550" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1550" s="7"/>
+      <c r="E1550" s="7">
+        <v>925.9</v>
+      </c>
+      <c r="F1550" s="7"/>
+      <c r="G1550">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:7" ht="15.75">
+      <c r="A1551" s="7">
+        <v>15</v>
+      </c>
+      <c r="B1551" s="7">
+        <v>362.2</v>
+      </c>
+      <c r="C1551" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1551" s="7"/>
+      <c r="E1551" s="7">
+        <v>362.1</v>
+      </c>
+      <c r="F1551" s="7"/>
+      <c r="G1551">
+        <f t="shared" si="102"/>
+        <v>9.9999999999965894E-2</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:7" ht="15.75">
+      <c r="A1552" s="7">
+        <v>16</v>
+      </c>
+      <c r="B1552" s="7">
+        <v>782.7</v>
+      </c>
+      <c r="C1552" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1552" s="7"/>
+      <c r="E1552" s="7">
+        <v>782.6</v>
+      </c>
+      <c r="F1552" s="7"/>
+      <c r="G1552">
+        <f t="shared" si="102"/>
+        <v>0.10000000000002274</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:7" ht="15.75">
+      <c r="A1553" s="7">
+        <v>17</v>
+      </c>
+      <c r="B1553" s="7">
+        <v>622.29999999999995</v>
+      </c>
+      <c r="C1553" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1553" s="7"/>
+      <c r="E1553" s="7">
+        <v>622.1</v>
+      </c>
+      <c r="F1553" s="11"/>
+      <c r="G1553">
+        <f t="shared" si="102"/>
+        <v>0.19999999999993179</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:7" ht="15.75">
+      <c r="A1554" s="7">
+        <v>18</v>
+      </c>
+      <c r="B1554" s="10">
+        <v>323.8</v>
+      </c>
+      <c r="C1554" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1554" s="7"/>
+      <c r="E1554" s="10">
+        <v>323.39999999999998</v>
+      </c>
+      <c r="F1554" s="7"/>
+      <c r="G1554">
+        <f t="shared" si="102"/>
+        <v>0.40000000000003411</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:7" ht="15.75">
+      <c r="A1555" s="7">
+        <v>19</v>
+      </c>
+      <c r="B1555" s="7">
+        <v>2944.9</v>
+      </c>
+      <c r="C1555" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1555" s="7"/>
+      <c r="E1555" s="7">
+        <v>2887.3</v>
+      </c>
+      <c r="F1555" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1555">
+        <f t="shared" si="102"/>
+        <v>57.599999999999909</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:7" ht="15.75">
+      <c r="A1556" s="7">
+        <v>20</v>
+      </c>
+      <c r="B1556" s="7">
+        <v>1074.5999999999999</v>
+      </c>
+      <c r="C1556" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1556" s="7"/>
+      <c r="E1556" s="7">
+        <v>1074.5</v>
+      </c>
+      <c r="F1556" s="11"/>
+      <c r="G1556">
+        <f t="shared" si="102"/>
+        <v>9.9999999999909051E-2</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:7" ht="15.75">
+      <c r="A1557" s="7">
+        <v>21</v>
+      </c>
+      <c r="B1557" s="7">
+        <v>259.3</v>
+      </c>
+      <c r="C1557" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1557" s="7"/>
+      <c r="E1557" s="7">
+        <v>234.8</v>
+      </c>
+      <c r="F1557" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G1557">
+        <f t="shared" si="102"/>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:7" ht="15.75">
+      <c r="A1558" s="7">
+        <v>22</v>
+      </c>
+      <c r="B1558" s="7">
+        <v>1777.2</v>
+      </c>
+      <c r="C1558" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1558" s="7"/>
+      <c r="E1558" s="7">
+        <v>1777.2</v>
+      </c>
+      <c r="F1558" s="7"/>
+      <c r="G1558">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:7" ht="15.75">
+      <c r="A1559" s="7">
+        <v>23</v>
+      </c>
+      <c r="B1559" s="7">
+        <v>1154.5999999999999</v>
+      </c>
+      <c r="C1559" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1559" s="7"/>
+      <c r="E1559" s="7">
+        <v>1154.5</v>
+      </c>
+      <c r="F1559" s="7"/>
+      <c r="G1559">
+        <f t="shared" si="102"/>
+        <v>9.9999999999909051E-2</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:7" ht="15.75">
+      <c r="A1560" s="7">
+        <v>24</v>
+      </c>
+      <c r="B1560" s="7">
+        <v>1312.5</v>
+      </c>
+      <c r="C1560" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1560" s="12"/>
+      <c r="E1560" s="7">
+        <v>1312.5</v>
+      </c>
+      <c r="F1560" s="11"/>
+      <c r="G1560">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:7" ht="15.75">
+      <c r="A1561" s="7">
+        <v>25</v>
+      </c>
+      <c r="B1561" s="7">
+        <v>798.2</v>
+      </c>
+      <c r="C1561" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1561" s="7"/>
+      <c r="E1561" s="7">
+        <v>798.1</v>
+      </c>
+      <c r="F1561" s="7"/>
+      <c r="G1561">
+        <f t="shared" si="102"/>
+        <v>0.10000000000002274</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:7" ht="15.75">
+      <c r="A1562" s="7">
+        <v>26</v>
+      </c>
+      <c r="B1562" s="7">
+        <v>383.9</v>
+      </c>
+      <c r="C1562" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1562" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1562" s="7">
+        <v>443.6</v>
+      </c>
+      <c r="F1562" s="7"/>
+      <c r="G1562">
+        <f t="shared" si="102"/>
+        <v>-59.700000000000045</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:7" ht="15.75">
+      <c r="A1563" s="7">
+        <v>27</v>
+      </c>
+      <c r="B1563" s="7">
+        <v>1077.7</v>
+      </c>
+      <c r="C1563" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1563" s="7"/>
+      <c r="E1563" s="7">
+        <v>1077</v>
+      </c>
+      <c r="F1563" s="11"/>
+      <c r="G1563">
+        <f t="shared" si="102"/>
+        <v>0.70000000000004547</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:7" ht="15.75">
+      <c r="A1564" s="7">
+        <v>28</v>
+      </c>
+      <c r="B1564" s="7">
+        <v>2676</v>
+      </c>
+      <c r="C1564" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1564" s="7"/>
+      <c r="E1564" s="7">
+        <v>2675.9</v>
+      </c>
+      <c r="F1564" s="7"/>
+      <c r="G1564">
+        <f t="shared" si="102"/>
+        <v>9.9999999999909051E-2</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:7" ht="15.75">
+      <c r="A1565" s="7">
+        <v>29</v>
+      </c>
+      <c r="B1565" s="7">
+        <v>2478.4</v>
+      </c>
+      <c r="C1565" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1565" s="7"/>
+      <c r="E1565" s="7">
+        <v>2478.1</v>
+      </c>
+      <c r="F1565" s="7"/>
+      <c r="G1565">
+        <f t="shared" si="102"/>
+        <v>0.3000000000001819</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:7" ht="15.75">
+      <c r="A1566" s="7">
+        <v>30</v>
+      </c>
+      <c r="B1566" s="7">
+        <v>3652.1</v>
+      </c>
+      <c r="C1566" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1566" s="7"/>
+      <c r="E1566" s="7">
+        <v>3651.9</v>
+      </c>
+      <c r="F1566" s="7"/>
+      <c r="G1566">
+        <f t="shared" si="102"/>
+        <v>0.1999999999998181</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:7" ht="15.75">
+      <c r="A1567" s="7">
+        <v>31</v>
+      </c>
+      <c r="B1567" s="7">
+        <v>1091.9000000000001</v>
+      </c>
+      <c r="C1567" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1567" s="8"/>
+      <c r="E1567" s="7">
+        <v>1091.9000000000001</v>
+      </c>
+      <c r="G1567">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:7" ht="15.75">
+      <c r="A1568" s="7">
+        <v>32</v>
+      </c>
+      <c r="B1568" s="7">
+        <v>308.2</v>
+      </c>
+      <c r="C1568" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1568" s="7">
+        <v>308.10000000000002</v>
+      </c>
+      <c r="F1568" s="8"/>
+      <c r="G1568">
+        <f t="shared" si="102"/>
+        <v>9.9999999999965894E-2</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:7" ht="15.75">
+      <c r="A1569" s="7">
+        <v>34</v>
+      </c>
+      <c r="B1569" s="7">
+        <v>2575.1</v>
+      </c>
+      <c r="C1569" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1569" s="7">
+        <v>2574.8000000000002</v>
+      </c>
+      <c r="F1569" s="11"/>
+      <c r="G1569" s="7">
+        <f t="shared" si="102"/>
+        <v>0.29999999999972715</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:7" ht="15.75">
+      <c r="A1570" s="7">
+        <v>35</v>
+      </c>
+      <c r="B1570" s="7">
+        <v>3349.2</v>
+      </c>
+      <c r="C1570" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1570" s="8"/>
+      <c r="E1570" s="7">
+        <v>3349</v>
+      </c>
+      <c r="F1570" s="11"/>
+      <c r="G1570" s="7">
+        <f t="shared" si="102"/>
+        <v>0.1999999999998181</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:7" ht="15.75">
+      <c r="A1571" s="7">
+        <v>36</v>
+      </c>
+      <c r="B1571" s="7">
+        <v>184.9</v>
+      </c>
+      <c r="C1571" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1571" s="7">
+        <v>184.8</v>
+      </c>
+      <c r="G1571" s="7">
+        <f t="shared" si="102"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:7" ht="15.75">
+      <c r="A1572" s="7">
+        <v>37</v>
+      </c>
+      <c r="B1572" s="7">
+        <v>1039.5</v>
+      </c>
+      <c r="C1572" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1572" s="7">
+        <v>1039.5</v>
+      </c>
+      <c r="F1572" s="11"/>
+      <c r="G1572" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:7" ht="15.75">
+      <c r="A1573" s="7">
+        <v>38</v>
+      </c>
+      <c r="B1573" s="7">
+        <v>2438.4</v>
+      </c>
+      <c r="C1573" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1573" s="7">
+        <v>2438.4</v>
+      </c>
+      <c r="F1573" s="11"/>
+      <c r="G1573" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:7" ht="15.75">
+      <c r="A1574" s="7"/>
+      <c r="B1574" s="7"/>
+      <c r="C1574" s="7"/>
+      <c r="E1574" s="7"/>
+      <c r="F1574" s="11"/>
+      <c r="G1574" s="7"/>
+    </row>
+    <row r="1575" spans="1:7" ht="15.75">
+      <c r="A1575" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1575" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1575" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1575" s="10"/>
+      <c r="E1575" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1575" s="10"/>
+      <c r="G1575" t="e">
+        <f t="shared" ref="G1575:G1578" si="103">(B1575 - E1575)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:7" ht="15.75">
+      <c r="A1576" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1576" s="7">
+        <v>56</v>
+      </c>
+      <c r="C1576" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1576" s="7"/>
+      <c r="E1576" s="7">
+        <v>56</v>
+      </c>
+      <c r="F1576" s="7"/>
+      <c r="G1576">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:7" ht="15.75">
+      <c r="A1577" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1577" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1577" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1577" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1577" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F1577" s="7"/>
+      <c r="G1577" t="e">
+        <f t="shared" si="103"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:7" ht="15.75">
+      <c r="A1578" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1578" s="7">
+        <v>13</v>
+      </c>
+      <c r="C1578" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1578" s="7">
+        <v>13</v>
+      </c>
+      <c r="F1578" s="11"/>
+      <c r="G1578" s="7">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:7" ht="15.75">
+      <c r="A1579" s="7"/>
+      <c r="B1579" s="7"/>
+      <c r="C1579" s="7"/>
+      <c r="E1579" s="7"/>
+      <c r="F1579" s="11"/>
+      <c r="G1579" s="7"/>
+    </row>
+    <row r="1580" spans="1:7" ht="15.75">
+      <c r="A1580" s="7"/>
+      <c r="B1580" s="7"/>
+      <c r="C1580" s="7"/>
+      <c r="E1580" s="7"/>
+      <c r="F1580" s="11"/>
+      <c r="G1580" s="7"/>
+    </row>
+    <row r="1581" spans="1:7" ht="15.75">
+      <c r="A1581" s="7"/>
+      <c r="B1581" s="3"/>
+      <c r="C1581" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1581" s="3"/>
+      <c r="E1581" s="3"/>
+      <c r="F1581" s="3"/>
+      <c r="G1581">
+        <f t="shared" ref="G1581:G1600" si="104">(B1581 - E1581)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:7" ht="15.75">
+      <c r="A1582" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1582" s="10">
+        <v>2250</v>
+      </c>
+      <c r="C1582" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1582" s="10"/>
+      <c r="E1582" s="10">
+        <v>2250</v>
+      </c>
+      <c r="F1582" s="10"/>
+      <c r="G1582" s="13">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:7" ht="15.75">
+      <c r="A1583" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1583" s="10">
+        <v>2042</v>
+      </c>
+      <c r="C1583" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1583" s="10"/>
+      <c r="E1583" s="10">
+        <v>2042</v>
+      </c>
+      <c r="F1583" s="10"/>
+      <c r="G1583" s="13">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:7" ht="15.75">
+      <c r="A1584" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1584" s="11"/>
+      <c r="C1584" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1584" s="14"/>
+      <c r="E1584" s="11"/>
+      <c r="F1584" s="14"/>
+      <c r="G1584" s="14">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:7" ht="15.75">
+      <c r="A1585" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1585" s="11"/>
+      <c r="C1585" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1585" s="14"/>
+      <c r="E1585" s="11"/>
+      <c r="F1585" s="14"/>
+      <c r="G1585" s="14">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:7" ht="15.75">
+      <c r="A1586" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1586" s="7">
+        <v>1050</v>
+      </c>
+      <c r="C1586" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1586" s="7">
+        <v>1050</v>
+      </c>
+      <c r="G1586">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:7" ht="15.75">
+      <c r="A1587" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1587" s="7">
+        <v>2037</v>
+      </c>
+      <c r="C1587" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1587" s="7">
+        <v>2037</v>
+      </c>
+      <c r="F1587" s="7"/>
+      <c r="G1587">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:7" ht="15.75">
+      <c r="A1588" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1588" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C1588" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1588" s="7"/>
+      <c r="E1588" s="7">
+        <v>3000</v>
+      </c>
+      <c r="G1588">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:7" ht="15.75">
+      <c r="A1589" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1589" s="7">
+        <v>2250</v>
+      </c>
+      <c r="C1589" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1589" s="7"/>
+      <c r="E1589" s="7">
+        <v>2250</v>
+      </c>
+      <c r="F1589" s="7"/>
+      <c r="G1589">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:7" ht="15.75">
+      <c r="A1590" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1590" s="7">
+        <v>4350</v>
+      </c>
+      <c r="C1590" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1590" s="7">
+        <v>4350</v>
+      </c>
+      <c r="G1590">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:7" ht="15.75">
+      <c r="A1591" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1591" s="7">
+        <v>4350</v>
+      </c>
+      <c r="C1591" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1591" s="7"/>
+      <c r="E1591" s="7">
+        <v>4350</v>
+      </c>
+      <c r="F1591" s="7"/>
+      <c r="G1591">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:7" ht="15.75">
+      <c r="A1592" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1592" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C1592" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1592" s="7"/>
+      <c r="E1592" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F1592" s="7"/>
+      <c r="G1592">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:7" ht="15.75">
+      <c r="A1593" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1593" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C1593" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1593" s="7"/>
+      <c r="E1593" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F1593" s="7"/>
+      <c r="G1593">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:7" ht="15.75">
+      <c r="A1594" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1594" s="7">
+        <v>3450</v>
+      </c>
+      <c r="C1594" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1594" s="7"/>
+      <c r="E1594" s="7">
+        <v>3450</v>
+      </c>
+      <c r="F1594" s="7"/>
+      <c r="G1594">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:7" ht="15.75">
+      <c r="A1595" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1595" s="7">
+        <v>2256</v>
+      </c>
+      <c r="C1595" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1595" s="7">
+        <v>2256</v>
+      </c>
+      <c r="F1595" s="7"/>
+      <c r="G1595">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:7" ht="15.75">
+      <c r="A1596" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1596" s="10">
+        <v>2400</v>
+      </c>
+      <c r="C1596" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1596" s="10"/>
+      <c r="E1596" s="10">
+        <v>2400</v>
+      </c>
+      <c r="F1596" s="10"/>
+      <c r="G1596" s="13">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:7" ht="15.75">
+      <c r="A1597" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1597" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1597" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1597" s="10"/>
+      <c r="E1597" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1597" s="10"/>
+      <c r="G1597" s="13" t="e">
+        <f t="shared" si="104"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:7" ht="15.75">
+      <c r="A1598" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1598" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1598" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1598" s="10"/>
+      <c r="E1598" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1598" s="10"/>
+      <c r="G1598" s="13" t="e">
+        <f t="shared" si="104"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:7" ht="15.75">
+      <c r="A1599" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1599" s="7">
+        <v>2058</v>
+      </c>
+      <c r="C1599" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1599" s="7"/>
+      <c r="E1599" s="7">
+        <v>2058</v>
+      </c>
+      <c r="F1599" s="7"/>
+      <c r="G1599">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:7" ht="15.75">
+      <c r="A1600" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1600" s="10">
+        <v>2400</v>
+      </c>
+      <c r="C1600" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1600" s="7"/>
+      <c r="E1600" s="10">
+        <v>2400</v>
+      </c>
+      <c r="F1600" s="7"/>
+      <c r="G1600">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:7" ht="15.75">
+      <c r="A1601" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1601" s="7">
+        <v>2432</v>
+      </c>
+      <c r="C1601" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1601" s="7"/>
+      <c r="E1601" s="7">
+        <v>2432</v>
+      </c>
+      <c r="F1601" s="7"/>
+      <c r="G1601" t="e">
+        <f>(B1601 -#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:7" ht="15.75">
+      <c r="A1602" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1602" s="7">
+        <v>4650</v>
+      </c>
+      <c r="C1602" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1602" s="7">
+        <v>4650</v>
+      </c>
+      <c r="F1602" s="8"/>
+      <c r="G1602">
+        <f t="shared" ref="G1602:G1608" si="105">(B1602 - E1602)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:7" ht="15.75">
+      <c r="A1603" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1603" s="10">
+        <v>2800</v>
+      </c>
+      <c r="C1603" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1603" s="10">
+        <v>2800</v>
+      </c>
+      <c r="G1603">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:7" ht="15.75">
+      <c r="A1604" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1604" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1604" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1604" s="7"/>
+      <c r="E1604" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1604" s="7"/>
+      <c r="G1604" t="e">
+        <f t="shared" si="105"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:7" ht="15.75">
+      <c r="A1605" s="15"/>
+      <c r="B1605" s="16"/>
+      <c r="C1605" s="15"/>
+      <c r="D1605" s="16"/>
+      <c r="E1605" s="16"/>
+      <c r="F1605" s="16"/>
+      <c r="G1605">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:7" ht="15.75">
+      <c r="A1606" s="7"/>
+      <c r="C1606" s="7"/>
+      <c r="D1606" s="7"/>
+      <c r="F1606" s="7"/>
+      <c r="G1606">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:7" ht="15.75">
+      <c r="A1607" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1607" s="7">
+        <v>20</v>
+      </c>
+      <c r="C1607" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1607" s="7"/>
+      <c r="E1607" s="7">
+        <v>20</v>
+      </c>
+      <c r="F1607" s="7"/>
+      <c r="G1607">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:7" ht="15.75">
+      <c r="A1608" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1608" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1608" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1608" s="17"/>
+      <c r="E1608" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1608" s="7"/>
+      <c r="G1608" t="e">
+        <f t="shared" si="105"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:7" ht="15.75">
+      <c r="A1609" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1609" s="17">
+        <v>14</v>
+      </c>
+      <c r="C1609" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1609" s="17"/>
+      <c r="E1609" s="17">
+        <v>14</v>
+      </c>
+      <c r="F1609" s="7"/>
+    </row>
+    <row r="1610" spans="1:7" ht="15.75">
+      <c r="A1610" s="18"/>
+      <c r="B1610" s="17"/>
+      <c r="C1610" s="18"/>
+      <c r="D1610" s="18"/>
+      <c r="E1610" s="17"/>
+      <c r="F1610" s="17"/>
+      <c r="G1610">
+        <f t="shared" ref="G1610:G1611" si="106">(B1610 - E1610)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:7" ht="15.75">
+      <c r="A1611" s="7"/>
+      <c r="B1611" s="7"/>
+      <c r="C1611" s="7"/>
+      <c r="E1611" s="7"/>
+      <c r="G1611">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:7" ht="15.75">
+      <c r="A1612" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1612" s="7">
+        <v>5</v>
+      </c>
+      <c r="C1612" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1612" s="7"/>
+      <c r="E1612" s="7">
+        <v>5</v>
+      </c>
+      <c r="F1612" s="7"/>
+      <c r="G1612" t="e">
+        <f>(E1612 -#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:7" ht="15.75">
+      <c r="B1613" s="7"/>
+      <c r="E1613" s="7"/>
+      <c r="G1613">
+        <f t="shared" ref="G1613:G1625" si="107">(B1613 - E1613)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:7">
+      <c r="C1614" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1614">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:7">
+      <c r="A1615" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1615">
+        <v>0</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1615">
+        <v>0</v>
+      </c>
+      <c r="G1615">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:7">
+      <c r="A1616" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1616">
+        <v>5</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1616">
+        <v>5</v>
+      </c>
+      <c r="G1616">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:7">
+      <c r="G1617">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:7">
+      <c r="A1618" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1618">
+        <v>6</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1618">
+        <v>6</v>
+      </c>
+      <c r="G1618">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:7">
+      <c r="A1619" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1619">
+        <v>6</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1619">
+        <v>6</v>
+      </c>
+      <c r="G1619">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:7">
+      <c r="A1620" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1620">
+        <v>8</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1620">
+        <v>8</v>
+      </c>
+      <c r="G1620">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:7">
+      <c r="A1621" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1621">
+        <v>10</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1621">
+        <v>10</v>
+      </c>
+      <c r="G1621">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:7">
+      <c r="A1622" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1622">
+        <v>11</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1622">
+        <v>11</v>
+      </c>
+      <c r="G1622">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:7">
+      <c r="G1623">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:7">
+      <c r="A1624" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1624">
+        <v>9</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1624">
+        <v>9</v>
+      </c>
+      <c r="G1624">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:7">
+      <c r="A1625" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1625">
+        <v>9</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1625">
+        <v>9</v>
+      </c>
+      <c r="G1625">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:7" ht="18.75">
+      <c r="A1631" s="3"/>
+      <c r="B1631" s="4">
+        <v>45824</v>
+      </c>
+      <c r="C1631" s="3"/>
+      <c r="D1631" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1631" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1631" s="6"/>
+    </row>
+    <row r="1632" spans="1:7" ht="15.75">
+      <c r="A1632" s="7">
+        <v>1</v>
+      </c>
+      <c r="B1632" s="7">
+        <v>51</v>
+      </c>
+      <c r="C1632" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1632" s="7"/>
+      <c r="E1632" s="7"/>
+      <c r="F1632" s="7"/>
+      <c r="G1632">
+        <f>(B1632 - E1632)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:7" ht="15.75">
+      <c r="A1633" s="7">
+        <v>2</v>
+      </c>
+      <c r="B1633" s="7">
+        <v>13</v>
+      </c>
+      <c r="C1633" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1633" s="7"/>
+      <c r="F1633" s="7"/>
+      <c r="G1633">
+        <f t="shared" ref="G1633:G1653" si="108">(B1633 - E1633)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:7" ht="15.75">
+      <c r="A1634" s="7">
+        <v>3</v>
+      </c>
+      <c r="B1634" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1634" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1634" s="7"/>
+      <c r="E1634" s="7"/>
+      <c r="F1634" s="7"/>
+      <c r="G1634" t="e">
+        <f t="shared" si="108"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:7" ht="15.75">
+      <c r="A1635" s="7">
+        <v>4</v>
+      </c>
+      <c r="B1635" s="7">
+        <v>13</v>
+      </c>
+      <c r="C1635" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1635" s="7"/>
+      <c r="E1635" s="7"/>
+      <c r="F1635" s="7"/>
+      <c r="G1635">
+        <f t="shared" si="108"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:7" ht="15.75">
+      <c r="A1636" s="7">
+        <v>5</v>
+      </c>
+      <c r="B1636" s="7">
+        <v>10</v>
+      </c>
+      <c r="C1636" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1636" s="7"/>
+      <c r="E1636" s="7"/>
+      <c r="F1636" s="7"/>
+      <c r="G1636">
+        <f t="shared" si="108"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:7" ht="15.75">
+      <c r="A1637" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1637" s="7">
+        <v>17</v>
+      </c>
+      <c r="C1637" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1637" s="7"/>
+      <c r="E1637" s="7"/>
+      <c r="F1637" s="7"/>
+      <c r="G1637">
+        <f t="shared" si="108"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:7" ht="15.75">
+      <c r="A1638" s="7">
+        <v>7</v>
+      </c>
+      <c r="B1638" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1638" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1638" s="7"/>
+      <c r="E1638" s="7"/>
+      <c r="F1638" s="7"/>
+      <c r="G1638" t="e">
+        <f t="shared" si="108"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:7" ht="15.75">
+      <c r="A1639" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1639" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1639" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1639" s="7"/>
+      <c r="E1639" s="7"/>
+      <c r="F1639" s="7"/>
+      <c r="G1639" t="e">
+        <f t="shared" si="108"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:7" ht="15.75">
+      <c r="A1640" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1640" s="7">
+        <v>24</v>
+      </c>
+      <c r="C1640" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1640" s="7"/>
+      <c r="F1640" s="7"/>
+      <c r="G1640">
+        <f t="shared" si="108"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:7" ht="15.75">
+      <c r="A1641" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1641" s="7">
+        <v>12</v>
+      </c>
+      <c r="C1641" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1641" s="8"/>
+      <c r="E1641" s="7"/>
+      <c r="F1641" s="7"/>
+      <c r="G1641">
+        <f t="shared" si="108"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:7" ht="15.75">
+      <c r="A1642" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1642" s="7">
+        <v>21</v>
+      </c>
+      <c r="C1642" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1642" s="7"/>
+      <c r="E1642" s="7"/>
+      <c r="F1642" s="7"/>
+      <c r="G1642">
+        <f t="shared" si="108"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:7" ht="15.75">
+      <c r="A1643" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1643" s="7">
+        <v>24</v>
+      </c>
+      <c r="C1643" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1643" s="8"/>
+      <c r="E1643" s="7"/>
+      <c r="F1643" s="7"/>
+      <c r="G1643">
+        <f t="shared" si="108"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:7" ht="15.75">
+      <c r="A1644" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1644" s="7">
+        <v>14</v>
+      </c>
+      <c r="C1644" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1644" s="8"/>
+      <c r="E1644" s="7"/>
+      <c r="F1644" s="7"/>
+      <c r="G1644">
+        <f t="shared" si="108"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:7" ht="15.75">
+      <c r="A1645" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1645" s="7">
+        <v>17</v>
+      </c>
+      <c r="C1645" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1645" s="7"/>
+      <c r="F1645" s="7"/>
+      <c r="G1645">
+        <f t="shared" si="108"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:7" ht="15.75">
+      <c r="A1646" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1646" s="7">
+        <v>20</v>
+      </c>
+      <c r="C1646" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1646" s="7"/>
+      <c r="E1646" s="7"/>
+      <c r="F1646" s="7"/>
+      <c r="G1646">
+        <f t="shared" si="108"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:7" ht="15.75">
+      <c r="A1647" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1647" s="7">
+        <v>22</v>
+      </c>
+      <c r="C1647" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1647" s="7"/>
+      <c r="E1647" s="7"/>
+      <c r="F1647" s="7"/>
+      <c r="G1647">
+        <f t="shared" si="108"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:7" ht="15.75">
+      <c r="B1648" s="7"/>
+      <c r="E1648" s="7"/>
+      <c r="F1648" s="7"/>
+      <c r="G1648">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:7" ht="15.75">
+      <c r="A1649" s="7"/>
+      <c r="B1649" s="7"/>
+      <c r="C1649" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1649" s="7"/>
+      <c r="F1649" s="7"/>
+      <c r="G1649">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:7" ht="15.75">
+      <c r="A1650" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1650" s="7">
+        <v>6</v>
+      </c>
+      <c r="C1650" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1650" s="7"/>
+      <c r="E1650" s="7"/>
+      <c r="F1650" s="7"/>
+      <c r="G1650">
+        <f t="shared" si="108"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:7" ht="15.75">
+      <c r="A1651" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1651" s="7">
+        <v>5</v>
+      </c>
+      <c r="C1651" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1651" s="7"/>
+      <c r="E1651" s="7"/>
+      <c r="F1651" s="7"/>
+      <c r="G1651">
+        <f t="shared" si="108"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:7" ht="15.75">
+      <c r="A1652" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1652" s="7">
+        <v>4</v>
+      </c>
+      <c r="C1652" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1652" s="7"/>
+      <c r="E1652" s="7"/>
+      <c r="F1652" s="7"/>
+      <c r="G1652">
+        <f t="shared" si="108"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:7" ht="15.75">
+      <c r="A1653" s="7"/>
+      <c r="B1653" s="7"/>
+      <c r="C1653" s="7"/>
+      <c r="D1653" s="7"/>
+      <c r="E1653" s="7"/>
+      <c r="F1653" s="7"/>
+      <c r="G1653">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:7" ht="15.75">
+      <c r="A1654" s="7"/>
+      <c r="B1654" s="7"/>
+      <c r="C1654" s="7"/>
+      <c r="D1654" s="7"/>
+      <c r="E1654" s="7"/>
+      <c r="F1654" s="7"/>
+      <c r="G1654">
+        <f>(B1654 - E1654)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:7" ht="15.75">
+      <c r="A1655" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1655" s="7">
+        <v>18</v>
+      </c>
+      <c r="C1655" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1655" s="7"/>
+      <c r="E1655" s="7"/>
+      <c r="F1655" s="7"/>
+      <c r="G1655">
+        <f t="shared" ref="G1655:G1666" si="109">(B1655 - E1655)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:7" ht="15.75">
+      <c r="A1656" s="7"/>
+      <c r="B1656" s="7"/>
+      <c r="C1656" s="7"/>
+      <c r="D1656" s="7"/>
+      <c r="E1656" s="7"/>
+      <c r="F1656" s="7"/>
+      <c r="G1656">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:7" ht="15.75">
+      <c r="B1657" s="7"/>
+      <c r="E1657" s="7"/>
+      <c r="F1657" s="7"/>
+      <c r="G1657">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:7" ht="15.75">
+      <c r="A1658" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1658" s="7">
+        <v>6</v>
+      </c>
+      <c r="C1658" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1658" s="7"/>
+      <c r="E1658" s="7"/>
+      <c r="F1658" s="7"/>
+      <c r="G1658">
+        <f t="shared" si="109"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:7" ht="15.75">
+      <c r="A1659" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1659" s="7">
+        <v>8</v>
+      </c>
+      <c r="C1659" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1659" s="7"/>
+      <c r="E1659" s="7"/>
+      <c r="F1659" s="7"/>
+      <c r="G1659">
+        <f t="shared" si="109"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:7" ht="15.75">
+      <c r="A1660" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1660" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1660" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1660" s="7"/>
+      <c r="E1660" s="7"/>
+      <c r="F1660" s="7"/>
+      <c r="G1660" t="e">
+        <f t="shared" si="109"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:7" ht="15.75">
+      <c r="A1661" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1661" s="7">
+        <v>35</v>
+      </c>
+      <c r="C1661" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1661" s="7"/>
+      <c r="E1661" s="7"/>
+      <c r="F1661" s="7"/>
+      <c r="G1661">
+        <f t="shared" si="109"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:7" ht="15.75">
+      <c r="A1662" s="7"/>
+      <c r="B1662" s="7"/>
+      <c r="C1662" s="7"/>
+      <c r="D1662" s="7"/>
+      <c r="E1662" s="7"/>
+      <c r="F1662" s="7"/>
+      <c r="G1662">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:7" ht="15.75">
+      <c r="A1663" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1663" s="7">
+        <v>10</v>
+      </c>
+      <c r="C1663" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1663" s="7"/>
+      <c r="E1663" s="7"/>
+      <c r="F1663" s="7"/>
+      <c r="G1663">
+        <f t="shared" si="109"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:7" ht="15.75">
+      <c r="A1664" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1664" s="7">
+        <v>7</v>
+      </c>
+      <c r="C1664" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1664" s="7"/>
+      <c r="E1664" s="7"/>
+      <c r="F1664" s="7"/>
+      <c r="G1664">
+        <f t="shared" si="109"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:7" ht="15.75">
+      <c r="A1665" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1665" s="7">
+        <v>6</v>
+      </c>
+      <c r="C1665" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1665" s="7"/>
+      <c r="E1665" s="7"/>
+      <c r="F1665" s="7"/>
+      <c r="G1665">
+        <f t="shared" si="109"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:7" ht="15.75">
+      <c r="A1666" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1666" s="7">
+        <v>12</v>
+      </c>
+      <c r="C1666" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1666" s="7"/>
+      <c r="E1666" s="7"/>
+      <c r="F1666" s="7"/>
+      <c r="G1666">
+        <f t="shared" si="109"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:7" ht="15.75">
+      <c r="A1667" s="7"/>
+      <c r="B1667" s="7"/>
+      <c r="C1667" s="7"/>
+      <c r="D1667" s="7"/>
+      <c r="E1667" s="7"/>
+      <c r="F1667" s="7"/>
+    </row>
+    <row r="1668" spans="1:7" ht="15.75">
+      <c r="A1668" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1668" s="7">
+        <v>2</v>
+      </c>
+      <c r="C1668" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1668" s="7"/>
+      <c r="F1668" s="7"/>
+      <c r="G1668">
+        <f t="shared" ref="G1668:G1669" si="110">(B1668 - E1668)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:7" ht="15.75">
+      <c r="A1669" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1669" s="7">
+        <v>1</v>
+      </c>
+      <c r="C1669" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1669" s="7"/>
+      <c r="F1669" s="7"/>
+      <c r="G1669">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:7" ht="15.75">
+      <c r="A1670" s="7"/>
+      <c r="B1670" s="7"/>
+      <c r="C1670" s="7"/>
+      <c r="E1670" s="7"/>
+      <c r="F1670" s="7"/>
+    </row>
+    <row r="1671" spans="1:7" ht="15.75">
+      <c r="A1671" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1671" s="7"/>
+      <c r="C1671" s="7"/>
+      <c r="E1671" s="7"/>
+      <c r="F1671" s="7"/>
+    </row>
+    <row r="1672" spans="1:7" ht="15.75">
+      <c r="B1672" s="7"/>
+      <c r="C1672" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1672" s="7"/>
+      <c r="E1672" s="7"/>
+      <c r="F1672" s="7"/>
+      <c r="G1672">
+        <f t="shared" ref="G1672:G1709" si="111">(B1672 - E1672)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:7" ht="15.75">
+      <c r="A1673" s="7">
+        <v>1</v>
+      </c>
+      <c r="B1673" s="7">
+        <v>976.5</v>
+      </c>
+      <c r="C1673" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1673" s="7"/>
+      <c r="E1673" s="7"/>
+      <c r="F1673" s="7"/>
+      <c r="G1673">
+        <f t="shared" si="111"/>
+        <v>976.5</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:7" ht="15.75">
+      <c r="A1674" s="7">
+        <v>2</v>
+      </c>
+      <c r="B1674" s="7">
+        <v>379.8</v>
+      </c>
+      <c r="C1674" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1674" s="7"/>
+      <c r="F1674" s="7"/>
+      <c r="G1674">
+        <f t="shared" si="111"/>
+        <v>379.8</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:7" ht="15.75">
+      <c r="A1675" s="7">
+        <v>3</v>
+      </c>
+      <c r="B1675" s="7">
+        <v>729.6</v>
+      </c>
+      <c r="C1675" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1675" s="7"/>
+      <c r="E1675" s="7"/>
+      <c r="F1675" s="7"/>
+      <c r="G1675">
+        <f t="shared" si="111"/>
+        <v>729.6</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:7" ht="15.75">
+      <c r="A1676" s="7">
+        <v>4</v>
+      </c>
+      <c r="B1676" s="7">
+        <v>1590.8</v>
+      </c>
+      <c r="C1676" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1676" s="7"/>
+      <c r="E1676" s="7"/>
+      <c r="F1676" s="7"/>
+      <c r="G1676">
+        <f t="shared" si="111"/>
+        <v>1590.8</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:7" ht="15.75">
+      <c r="A1677" s="7">
+        <v>5</v>
+      </c>
+      <c r="B1677" s="7">
+        <v>1510.5</v>
+      </c>
+      <c r="C1677" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1677" s="7"/>
+      <c r="E1677" s="7"/>
+      <c r="F1677" s="7"/>
+      <c r="G1677">
+        <f t="shared" si="111"/>
+        <v>1510.5</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:7" ht="15.75">
+      <c r="A1678" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1678" s="7">
+        <v>2515.9</v>
+      </c>
+      <c r="C1678" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1678" s="7"/>
+      <c r="E1678" s="7"/>
+      <c r="F1678" s="11"/>
+      <c r="G1678">
+        <f t="shared" si="111"/>
+        <v>2515.9</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:7" ht="15.75">
+      <c r="A1679" s="7">
+        <v>7</v>
+      </c>
+      <c r="B1679" s="7">
+        <v>1471.2</v>
+      </c>
+      <c r="C1679" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1679" s="7"/>
+      <c r="E1679" s="7"/>
+      <c r="F1679" s="11"/>
+      <c r="G1679">
+        <f t="shared" si="111"/>
+        <v>1471.2</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:7" ht="15.75">
+      <c r="A1680" s="7">
+        <v>8</v>
+      </c>
+      <c r="B1680" s="7">
+        <v>1787.7</v>
+      </c>
+      <c r="C1680" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1680" s="10"/>
+      <c r="E1680" s="7"/>
+      <c r="F1680" s="10"/>
+      <c r="G1680">
+        <f t="shared" si="111"/>
+        <v>1787.7</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:7" ht="15.75">
+      <c r="A1681" s="7">
+        <v>9</v>
+      </c>
+      <c r="B1681" s="7">
+        <v>1548.1</v>
+      </c>
+      <c r="C1681" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1681" s="7"/>
+      <c r="E1681" s="7"/>
+      <c r="F1681" s="7"/>
+      <c r="G1681">
+        <f t="shared" si="111"/>
+        <v>1548.1</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:7" ht="15.75">
+      <c r="A1682" s="7">
+        <v>10</v>
+      </c>
+      <c r="B1682" s="7">
+        <v>527.70000000000005</v>
+      </c>
+      <c r="C1682" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1682" s="7"/>
+      <c r="E1682" s="7"/>
+      <c r="F1682" s="7"/>
+      <c r="G1682">
+        <f t="shared" si="111"/>
+        <v>527.70000000000005</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:7" ht="15.75">
+      <c r="A1683" s="7">
+        <v>11</v>
+      </c>
+      <c r="B1683" s="7">
+        <v>2781</v>
+      </c>
+      <c r="C1683" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1683" s="7"/>
+      <c r="E1683" s="7"/>
+      <c r="F1683" s="11"/>
+      <c r="G1683">
+        <f t="shared" si="111"/>
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:7" ht="15.75">
+      <c r="A1684" s="7">
+        <v>12</v>
+      </c>
+      <c r="B1684" s="7">
+        <v>402.7</v>
+      </c>
+      <c r="C1684" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1684" s="7"/>
+      <c r="E1684" s="7"/>
+      <c r="F1684" s="7"/>
+      <c r="G1684">
+        <f t="shared" si="111"/>
+        <v>402.7</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:7" ht="15.75">
+      <c r="A1685" s="7">
+        <v>13</v>
+      </c>
+      <c r="B1685" s="7">
+        <v>819.1</v>
+      </c>
+      <c r="C1685" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1685" s="7"/>
+      <c r="E1685" s="7"/>
+      <c r="F1685" s="7"/>
+      <c r="G1685">
+        <f t="shared" si="111"/>
+        <v>819.1</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:7" ht="15.75">
+      <c r="A1686" s="7">
+        <v>14</v>
+      </c>
+      <c r="B1686" s="7">
+        <v>925.9</v>
+      </c>
+      <c r="C1686" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1686" s="7"/>
+      <c r="E1686" s="7"/>
+      <c r="F1686" s="7"/>
+      <c r="G1686">
+        <f t="shared" si="111"/>
+        <v>925.9</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:7" ht="15.75">
+      <c r="A1687" s="7">
+        <v>15</v>
+      </c>
+      <c r="B1687" s="7">
+        <v>362.1</v>
+      </c>
+      <c r="C1687" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1687" s="7"/>
+      <c r="E1687" s="7"/>
+      <c r="F1687" s="7"/>
+      <c r="G1687">
+        <f t="shared" si="111"/>
+        <v>362.1</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:7" ht="15.75">
+      <c r="A1688" s="7">
+        <v>16</v>
+      </c>
+      <c r="B1688" s="7">
+        <v>782.6</v>
+      </c>
+      <c r="C1688" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1688" s="7"/>
+      <c r="E1688" s="7"/>
+      <c r="F1688" s="7"/>
+      <c r="G1688">
+        <f t="shared" si="111"/>
+        <v>782.6</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:7" ht="15.75">
+      <c r="A1689" s="7">
+        <v>17</v>
+      </c>
+      <c r="B1689" s="7">
+        <v>622.1</v>
+      </c>
+      <c r="C1689" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1689" s="7"/>
+      <c r="E1689" s="7"/>
+      <c r="F1689" s="11"/>
+      <c r="G1689">
+        <f t="shared" si="111"/>
+        <v>622.1</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:7" ht="15.75">
+      <c r="A1690" s="7">
+        <v>18</v>
+      </c>
+      <c r="B1690" s="10">
+        <v>323.39999999999998</v>
+      </c>
+      <c r="C1690" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1690" s="7"/>
+      <c r="E1690" s="10"/>
+      <c r="F1690" s="7"/>
+      <c r="G1690">
+        <f t="shared" si="111"/>
+        <v>323.39999999999998</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:7" ht="15.75">
+      <c r="A1691" s="7">
+        <v>19</v>
+      </c>
+      <c r="B1691" s="7">
+        <v>2887.3</v>
+      </c>
+      <c r="C1691" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1691" s="7"/>
+      <c r="E1691" s="7"/>
+      <c r="F1691" s="7"/>
+      <c r="G1691">
+        <f t="shared" si="111"/>
+        <v>2887.3</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:7" ht="15.75">
+      <c r="A1692" s="7">
+        <v>20</v>
+      </c>
+      <c r="B1692" s="7">
+        <v>1074.5</v>
+      </c>
+      <c r="C1692" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1692" s="7"/>
+      <c r="E1692" s="7"/>
+      <c r="F1692" s="11"/>
+      <c r="G1692">
+        <f t="shared" si="111"/>
+        <v>1074.5</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:7" ht="15.75">
+      <c r="A1693" s="7">
+        <v>21</v>
+      </c>
+      <c r="B1693" s="7">
+        <v>234.8</v>
+      </c>
+      <c r="C1693" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1693" s="7"/>
+      <c r="E1693" s="7"/>
+      <c r="F1693" s="7"/>
+      <c r="G1693">
+        <f t="shared" si="111"/>
+        <v>234.8</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:7" ht="15.75">
+      <c r="A1694" s="7">
+        <v>22</v>
+      </c>
+      <c r="B1694" s="7">
+        <v>1777.2</v>
+      </c>
+      <c r="C1694" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1694" s="7"/>
+      <c r="E1694" s="7"/>
+      <c r="F1694" s="7"/>
+      <c r="G1694">
+        <f t="shared" si="111"/>
+        <v>1777.2</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:7" ht="15.75">
+      <c r="A1695" s="7">
+        <v>23</v>
+      </c>
+      <c r="B1695" s="7">
+        <v>1154.5</v>
+      </c>
+      <c r="C1695" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1695" s="7"/>
+      <c r="E1695" s="7"/>
+      <c r="F1695" s="7"/>
+      <c r="G1695">
+        <f t="shared" si="111"/>
+        <v>1154.5</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:7" ht="15.75">
+      <c r="A1696" s="7">
+        <v>24</v>
+      </c>
+      <c r="B1696" s="7">
+        <v>1312.5</v>
+      </c>
+      <c r="C1696" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1696" s="12"/>
+      <c r="E1696" s="7"/>
+      <c r="F1696" s="11"/>
+      <c r="G1696">
+        <f t="shared" si="111"/>
+        <v>1312.5</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:7" ht="15.75">
+      <c r="A1697" s="7">
+        <v>25</v>
+      </c>
+      <c r="B1697" s="7">
+        <v>798.1</v>
+      </c>
+      <c r="C1697" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1697" s="7"/>
+      <c r="E1697" s="7"/>
+      <c r="F1697" s="7"/>
+      <c r="G1697">
+        <f t="shared" si="111"/>
+        <v>798.1</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:7" ht="15.75">
+      <c r="A1698" s="7">
+        <v>26</v>
+      </c>
+      <c r="B1698" s="7">
+        <v>443.6</v>
+      </c>
+      <c r="C1698" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1698" s="7"/>
+      <c r="E1698" s="7"/>
+      <c r="F1698" s="7"/>
+      <c r="G1698">
+        <f t="shared" si="111"/>
+        <v>443.6</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:7" ht="15.75">
+      <c r="A1699" s="7">
+        <v>27</v>
+      </c>
+      <c r="B1699" s="7">
+        <v>1077</v>
+      </c>
+      <c r="C1699" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1699" s="7"/>
+      <c r="E1699" s="7"/>
+      <c r="F1699" s="11"/>
+      <c r="G1699">
+        <f t="shared" si="111"/>
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:7" ht="15.75">
+      <c r="A1700" s="7">
+        <v>28</v>
+      </c>
+      <c r="B1700" s="7">
+        <v>2675.9</v>
+      </c>
+      <c r="C1700" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1700" s="7"/>
+      <c r="E1700" s="7"/>
+      <c r="F1700" s="7"/>
+      <c r="G1700">
+        <f t="shared" si="111"/>
+        <v>2675.9</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:7" ht="15.75">
+      <c r="A1701" s="7">
+        <v>29</v>
+      </c>
+      <c r="B1701" s="7">
+        <v>2478.1</v>
+      </c>
+      <c r="C1701" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1701" s="7"/>
+      <c r="E1701" s="7"/>
+      <c r="F1701" s="7"/>
+      <c r="G1701">
+        <f t="shared" si="111"/>
+        <v>2478.1</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:7" ht="15.75">
+      <c r="A1702" s="7">
+        <v>30</v>
+      </c>
+      <c r="B1702" s="7">
+        <v>3651.9</v>
+      </c>
+      <c r="C1702" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1702" s="7"/>
+      <c r="E1702" s="7"/>
+      <c r="F1702" s="7"/>
+      <c r="G1702">
+        <f t="shared" si="111"/>
+        <v>3651.9</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:7" ht="15.75">
+      <c r="A1703" s="7">
+        <v>31</v>
+      </c>
+      <c r="B1703" s="7">
+        <v>1091.9000000000001</v>
+      </c>
+      <c r="C1703" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1703" s="8"/>
+      <c r="E1703" s="7"/>
+      <c r="G1703">
+        <f t="shared" si="111"/>
+        <v>1091.9000000000001</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:7" ht="15.75">
+      <c r="A1704" s="7">
+        <v>32</v>
+      </c>
+      <c r="B1704" s="7">
+        <v>308.10000000000002</v>
+      </c>
+      <c r="C1704" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1704" s="7"/>
+      <c r="F1704" s="8"/>
+      <c r="G1704">
+        <f t="shared" si="111"/>
+        <v>308.10000000000002</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:7" ht="15.75">
+      <c r="A1705" s="7">
+        <v>34</v>
+      </c>
+      <c r="B1705" s="7">
+        <v>2574.8000000000002</v>
+      </c>
+      <c r="C1705" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1705" s="7"/>
+      <c r="F1705" s="11"/>
+      <c r="G1705" s="7">
+        <f t="shared" si="111"/>
+        <v>2574.8000000000002</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:7" ht="15.75">
+      <c r="A1706" s="7">
+        <v>35</v>
+      </c>
+      <c r="B1706" s="7">
+        <v>3349</v>
+      </c>
+      <c r="C1706" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1706" s="8"/>
+      <c r="E1706" s="7"/>
+      <c r="F1706" s="11"/>
+      <c r="G1706" s="7">
+        <f t="shared" si="111"/>
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:7" ht="15.75">
+      <c r="A1707" s="7">
+        <v>36</v>
+      </c>
+      <c r="B1707" s="7">
+        <v>184.8</v>
+      </c>
+      <c r="C1707" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1707" s="7"/>
+      <c r="G1707" s="7">
+        <f t="shared" si="111"/>
+        <v>184.8</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:7" ht="15.75">
+      <c r="A1708" s="7">
+        <v>37</v>
+      </c>
+      <c r="B1708" s="7">
+        <v>1039.5</v>
+      </c>
+      <c r="C1708" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1708" s="7"/>
+      <c r="F1708" s="11"/>
+      <c r="G1708" s="7">
+        <f t="shared" si="111"/>
+        <v>1039.5</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:7" ht="15.75">
+      <c r="A1709" s="7">
+        <v>38</v>
+      </c>
+      <c r="B1709" s="7">
+        <v>2438.4</v>
+      </c>
+      <c r="C1709" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1709" s="7"/>
+      <c r="F1709" s="11"/>
+      <c r="G1709" s="7">
+        <f t="shared" si="111"/>
+        <v>2438.4</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:7" ht="15.75">
+      <c r="A1710" s="7"/>
+      <c r="B1710" s="7"/>
+      <c r="C1710" s="7"/>
+      <c r="E1710" s="7"/>
+      <c r="F1710" s="11"/>
+      <c r="G1710" s="7"/>
+    </row>
+    <row r="1711" spans="1:7" ht="15.75">
+      <c r="A1711" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1711" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1711" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1711" s="10"/>
+      <c r="E1711" s="10"/>
+      <c r="F1711" s="10"/>
+      <c r="G1711" t="e">
+        <f t="shared" ref="G1711:G1714" si="112">(B1711 - E1711)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:7" ht="15.75">
+      <c r="A1712" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1712" s="7">
+        <v>56</v>
+      </c>
+      <c r="C1712" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1712" s="7"/>
+      <c r="E1712" s="7"/>
+      <c r="F1712" s="7"/>
+      <c r="G1712">
+        <f t="shared" si="112"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:7" ht="15.75">
+      <c r="A1713" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1713" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1713" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1713" s="7"/>
+      <c r="E1713" s="7"/>
+      <c r="F1713" s="7"/>
+      <c r="G1713" t="e">
+        <f t="shared" si="112"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:7" ht="15.75">
+      <c r="A1714" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1714" s="7">
+        <v>13</v>
+      </c>
+      <c r="C1714" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1714" s="7"/>
+      <c r="F1714" s="11"/>
+      <c r="G1714" s="7">
+        <f t="shared" si="112"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:7" ht="15.75">
+      <c r="A1715" s="7"/>
+      <c r="B1715" s="7"/>
+      <c r="C1715" s="7"/>
+      <c r="E1715" s="7"/>
+      <c r="F1715" s="11"/>
+      <c r="G1715" s="7"/>
+    </row>
+    <row r="1716" spans="1:7" ht="15.75">
+      <c r="A1716" s="7"/>
+      <c r="B1716" s="7"/>
+      <c r="C1716" s="7"/>
+      <c r="E1716" s="7"/>
+      <c r="F1716" s="11"/>
+      <c r="G1716" s="7"/>
+    </row>
+    <row r="1717" spans="1:7" ht="15.75">
+      <c r="A1717" s="7"/>
+      <c r="B1717" s="3"/>
+      <c r="C1717" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1717" s="3"/>
+      <c r="E1717" s="3"/>
+      <c r="F1717" s="3"/>
+      <c r="G1717">
+        <f t="shared" ref="G1717:G1736" si="113">(B1717 - E1717)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:7" ht="15.75">
+      <c r="A1718" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1718" s="10">
+        <v>2250</v>
+      </c>
+      <c r="C1718" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1718" s="10"/>
+      <c r="E1718" s="10"/>
+      <c r="F1718" s="10"/>
+      <c r="G1718" s="13">
+        <f t="shared" si="113"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:7" ht="15.75">
+      <c r="A1719" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1719" s="10">
+        <v>2042</v>
+      </c>
+      <c r="C1719" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1719" s="10"/>
+      <c r="E1719" s="10"/>
+      <c r="F1719" s="10"/>
+      <c r="G1719" s="13">
+        <f t="shared" si="113"/>
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:7" ht="15.75">
+      <c r="A1720" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1720" s="11"/>
+      <c r="C1720" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1720" s="14"/>
+      <c r="E1720" s="11"/>
+      <c r="F1720" s="14"/>
+      <c r="G1720" s="14">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:7" ht="15.75">
+      <c r="A1721" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1721" s="11"/>
+      <c r="C1721" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1721" s="14"/>
+      <c r="E1721" s="11"/>
+      <c r="F1721" s="14"/>
+      <c r="G1721" s="14">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:7" ht="15.75">
+      <c r="A1722" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1722" s="7">
+        <v>1050</v>
+      </c>
+      <c r="C1722" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1722" s="7"/>
+      <c r="G1722">
+        <f t="shared" si="113"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:7" ht="15.75">
+      <c r="A1723" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1723" s="7">
+        <v>2037</v>
+      </c>
+      <c r="C1723" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1723" s="7"/>
+      <c r="F1723" s="7"/>
+      <c r="G1723">
+        <f t="shared" si="113"/>
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:7" ht="15.75">
+      <c r="A1724" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1724" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C1724" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1724" s="7"/>
+      <c r="E1724" s="7"/>
+      <c r="G1724">
+        <f t="shared" si="113"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:7" ht="15.75">
+      <c r="A1725" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1725" s="7">
+        <v>2250</v>
+      </c>
+      <c r="C1725" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1725" s="7"/>
+      <c r="E1725" s="7"/>
+      <c r="F1725" s="7"/>
+      <c r="G1725">
+        <f t="shared" si="113"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:7" ht="15.75">
+      <c r="A1726" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1726" s="7">
+        <v>4350</v>
+      </c>
+      <c r="C1726" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1726" s="7"/>
+      <c r="G1726">
+        <f t="shared" si="113"/>
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:7" ht="15.75">
+      <c r="A1727" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1727" s="7">
+        <v>4350</v>
+      </c>
+      <c r="C1727" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1727" s="7"/>
+      <c r="E1727" s="7"/>
+      <c r="F1727" s="7"/>
+      <c r="G1727">
+        <f t="shared" si="113"/>
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:7" ht="15.75">
+      <c r="A1728" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1728" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C1728" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1728" s="7"/>
+      <c r="E1728" s="7"/>
+      <c r="F1728" s="7"/>
+      <c r="G1728">
+        <f t="shared" si="113"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:7" ht="15.75">
+      <c r="A1729" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1729" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C1729" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1729" s="7"/>
+      <c r="E1729" s="7"/>
+      <c r="F1729" s="7"/>
+      <c r="G1729">
+        <f t="shared" si="113"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:7" ht="15.75">
+      <c r="A1730" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1730" s="7">
+        <v>3450</v>
+      </c>
+      <c r="C1730" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1730" s="7"/>
+      <c r="E1730" s="7"/>
+      <c r="F1730" s="7"/>
+      <c r="G1730">
+        <f t="shared" si="113"/>
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:7" ht="15.75">
+      <c r="A1731" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1731" s="7">
+        <v>2256</v>
+      </c>
+      <c r="C1731" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1731" s="7"/>
+      <c r="F1731" s="7"/>
+      <c r="G1731">
+        <f t="shared" si="113"/>
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:7" ht="15.75">
+      <c r="A1732" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1732" s="10">
+        <v>2400</v>
+      </c>
+      <c r="C1732" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1732" s="10"/>
+      <c r="E1732" s="10"/>
+      <c r="F1732" s="10"/>
+      <c r="G1732" s="13">
+        <f t="shared" si="113"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:7" ht="15.75">
+      <c r="A1733" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1733" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1733" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1733" s="10"/>
+      <c r="E1733" s="10"/>
+      <c r="F1733" s="10"/>
+      <c r="G1733" s="13" t="e">
+        <f t="shared" si="113"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:7" ht="15.75">
+      <c r="A1734" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1734" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1734" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1734" s="10"/>
+      <c r="E1734" s="10"/>
+      <c r="F1734" s="10"/>
+      <c r="G1734" s="13" t="e">
+        <f t="shared" si="113"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:7" ht="15.75">
+      <c r="A1735" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1735" s="7">
+        <v>2058</v>
+      </c>
+      <c r="C1735" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1735" s="7"/>
+      <c r="E1735" s="7"/>
+      <c r="F1735" s="7"/>
+      <c r="G1735">
+        <f t="shared" si="113"/>
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:7" ht="15.75">
+      <c r="A1736" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1736" s="10">
+        <v>2400</v>
+      </c>
+      <c r="C1736" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1736" s="7"/>
+      <c r="E1736" s="10"/>
+      <c r="F1736" s="7"/>
+      <c r="G1736">
+        <f t="shared" si="113"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:7" ht="15.75">
+      <c r="A1737" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1737" s="7">
+        <v>2432</v>
+      </c>
+      <c r="C1737" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1737" s="7"/>
+      <c r="E1737" s="7"/>
+      <c r="F1737" s="7"/>
+      <c r="G1737" t="e">
+        <f>(B1737 -#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:7" ht="15.75">
+      <c r="A1738" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1738" s="7">
+        <v>4650</v>
+      </c>
+      <c r="C1738" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1738" s="7"/>
+      <c r="F1738" s="8"/>
+      <c r="G1738">
+        <f t="shared" ref="G1738:G1744" si="114">(B1738 - E1738)</f>
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:7" ht="15.75">
+      <c r="A1739" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1739" s="10">
+        <v>2800</v>
+      </c>
+      <c r="C1739" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1739" s="10"/>
+      <c r="G1739">
+        <f t="shared" si="114"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:7" ht="15.75">
+      <c r="A1740" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1740" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1740" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1740" s="7"/>
+      <c r="E1740" s="7"/>
+      <c r="F1740" s="7"/>
+      <c r="G1740" t="e">
+        <f t="shared" si="114"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:7" ht="15.75">
+      <c r="A1741" s="15"/>
+      <c r="B1741" s="16"/>
+      <c r="C1741" s="15"/>
+      <c r="D1741" s="16"/>
+      <c r="E1741" s="16"/>
+      <c r="F1741" s="16"/>
+      <c r="G1741">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:7" ht="15.75">
+      <c r="A1742" s="7"/>
+      <c r="C1742" s="7"/>
+      <c r="D1742" s="7"/>
+      <c r="F1742" s="7"/>
+      <c r="G1742">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:7" ht="15.75">
+      <c r="A1743" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1743" s="7">
+        <v>20</v>
+      </c>
+      <c r="C1743" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1743" s="7"/>
+      <c r="E1743" s="7"/>
+      <c r="F1743" s="7"/>
+      <c r="G1743">
+        <f t="shared" si="114"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:7" ht="15.75">
+      <c r="A1744" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1744" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1744" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1744" s="17"/>
+      <c r="E1744" s="17"/>
+      <c r="F1744" s="7"/>
+      <c r="G1744" t="e">
+        <f t="shared" si="114"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:7" ht="15.75">
+      <c r="A1745" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1745" s="17">
+        <v>14</v>
+      </c>
+      <c r="C1745" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1745" s="17"/>
+      <c r="E1745" s="17"/>
+      <c r="F1745" s="7"/>
+    </row>
+    <row r="1746" spans="1:7" ht="15.75">
+      <c r="A1746" s="18"/>
+      <c r="B1746" s="17"/>
+      <c r="C1746" s="18"/>
+      <c r="D1746" s="18"/>
+      <c r="E1746" s="17"/>
+      <c r="F1746" s="17"/>
+      <c r="G1746">
+        <f t="shared" ref="G1746:G1747" si="115">(B1746 - E1746)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:7" ht="15.75">
+      <c r="A1747" s="7"/>
+      <c r="B1747" s="7"/>
+      <c r="C1747" s="7"/>
+      <c r="E1747" s="7"/>
+      <c r="G1747">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:7" ht="15.75">
+      <c r="A1748" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1748" s="7">
+        <v>5</v>
+      </c>
+      <c r="C1748" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1748" s="7"/>
+      <c r="E1748" s="7"/>
+      <c r="F1748" s="7"/>
+      <c r="G1748" t="e">
+        <f>(E1748 -#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:7" ht="15.75">
+      <c r="B1749" s="7"/>
+      <c r="E1749" s="7"/>
+      <c r="G1749">
+        <f t="shared" ref="G1749:G1761" si="116">(B1749 - E1749)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:7">
+      <c r="C1750" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1750">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:7">
+      <c r="A1751" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1751">
+        <v>0</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1751">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:7">
+      <c r="A1752" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1752">
+        <v>5</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1752">
+        <f t="shared" si="116"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:7">
+      <c r="G1753">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:7">
+      <c r="A1754" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1754">
+        <v>6</v>
+      </c>
+      <c r="C1754" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1754">
+        <f t="shared" si="116"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:7">
+      <c r="A1755" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1755">
+        <v>6</v>
+      </c>
+      <c r="C1755" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1755">
+        <f t="shared" si="116"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:7">
+      <c r="A1756" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1756">
+        <v>8</v>
+      </c>
+      <c r="C1756" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1756">
+        <f t="shared" si="116"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:7">
+      <c r="A1757" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1757">
+        <v>10</v>
+      </c>
+      <c r="C1757" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1757">
+        <f t="shared" si="116"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:7">
+      <c r="A1758" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1758">
+        <v>11</v>
+      </c>
+      <c r="C1758" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1758">
+        <f t="shared" si="116"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:7">
+      <c r="G1759">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:7">
+      <c r="A1760" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1760">
+        <v>9</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1760">
+        <f t="shared" si="116"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:7">
+      <c r="A1761" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1761">
+        <v>9</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1761">
+        <f t="shared" si="116"/>
         <v>9</v>
       </c>
     </row>

--- a/StockEntryJune25.xlsx
+++ b/StockEntryJune25.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3062" uniqueCount="380">
   <si>
     <t>Name</t>
   </si>
@@ -1088,7 +1088,73 @@
     <t>2pc s farua sold(8.3gm,12.7gm)</t>
   </si>
   <si>
-    <t>taken on 17/06/25</t>
+    <t>(16-17)06-2025</t>
+  </si>
+  <si>
+    <t>taken on 18/06/25</t>
+  </si>
+  <si>
+    <t>52.2gm added from repolish</t>
+  </si>
+  <si>
+    <t>9.5gm added from repolish</t>
+  </si>
+  <si>
+    <t>136.2gm added from new purches</t>
+  </si>
+  <si>
+    <t>35.9gm sold</t>
+  </si>
+  <si>
+    <t>14.4gm added from repolish</t>
+  </si>
+  <si>
+    <t>3.4gm sold</t>
+  </si>
+  <si>
+    <t>4.7gm sold</t>
+  </si>
+  <si>
+    <t>18.3gm sold</t>
+  </si>
+  <si>
+    <t>14.4gm sold+packet</t>
+  </si>
+  <si>
+    <t>1pc nose ring sold</t>
+  </si>
+  <si>
+    <t>2+7+7+1+2+0</t>
+  </si>
+  <si>
+    <t>1pc kay ring taken for return</t>
+  </si>
+  <si>
+    <t>2pc added from new purches(24.6gm)</t>
+  </si>
+  <si>
+    <t>312.3gm taken for melting and repolish(13.1gm)</t>
+  </si>
+  <si>
+    <t>taken on 19/06/25</t>
+  </si>
+  <si>
+    <t>1pc puja item sold</t>
+  </si>
+  <si>
+    <t>4.6gm toering sold</t>
+  </si>
+  <si>
+    <t>17.3gm cb chain sold</t>
+  </si>
+  <si>
+    <t>14.5gm tabiz+adjester sold</t>
+  </si>
+  <si>
+    <t>5.5gm locket sold</t>
+  </si>
+  <si>
+    <t>taken on 20/06/25</t>
   </si>
 </sst>
 </file>
@@ -1501,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1761"/>
+  <dimension ref="A1:G2032"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1548" workbookViewId="0">
-      <selection activeCell="D1552" sqref="D1552"/>
+    <sheetView tabSelected="1" topLeftCell="A1902" workbookViewId="0">
+      <selection activeCell="D1903" sqref="D1903"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28368,12 +28434,12 @@
     </row>
     <row r="1631" spans="1:7" ht="18.75">
       <c r="A1631" s="3"/>
-      <c r="B1631" s="4">
-        <v>45824</v>
+      <c r="B1631" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="C1631" s="3"/>
       <c r="D1631" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E1631" s="5" t="s">
         <v>8</v>
@@ -28390,12 +28456,16 @@
       <c r="C1632" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D1632" s="7"/>
-      <c r="E1632" s="7"/>
+      <c r="D1632" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E1632" s="7">
+        <v>51</v>
+      </c>
       <c r="F1632" s="7"/>
       <c r="G1632">
         <f>(B1632 - E1632)</f>
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1633" spans="1:7" ht="15.75">
@@ -28498,8 +28568,12 @@
         <v>232</v>
       </c>
       <c r="D1638" s="7"/>
-      <c r="E1638" s="7"/>
-      <c r="F1638" s="7"/>
+      <c r="E1638" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F1638" s="7" t="s">
+        <v>370</v>
+      </c>
       <c r="G1638" t="e">
         <f t="shared" si="108"/>
         <v>#VALUE!</v>
@@ -28640,11 +28714,15 @@
         <v>22</v>
       </c>
       <c r="D1646" s="7"/>
-      <c r="E1646" s="7"/>
-      <c r="F1646" s="7"/>
+      <c r="E1646" s="7">
+        <v>22</v>
+      </c>
+      <c r="F1646" s="7" t="s">
+        <v>371</v>
+      </c>
       <c r="G1646">
         <f t="shared" si="108"/>
-        <v>20</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1647" spans="1:7" ht="15.75">
@@ -29076,12 +29154,16 @@
       <c r="C1675" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D1675" s="7"/>
-      <c r="E1675" s="7"/>
+      <c r="D1675" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1675" s="7">
+        <v>724.9</v>
+      </c>
       <c r="F1675" s="7"/>
       <c r="G1675">
         <f t="shared" si="111"/>
-        <v>729.6</v>
+        <v>4.7000000000000455</v>
       </c>
     </row>
     <row r="1676" spans="1:7" ht="15.75">
@@ -29094,12 +29176,16 @@
       <c r="C1676" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D1676" s="7"/>
-      <c r="E1676" s="7"/>
+      <c r="D1676" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1676" s="7">
+        <v>1572.5</v>
+      </c>
       <c r="F1676" s="7"/>
       <c r="G1676">
         <f t="shared" si="111"/>
-        <v>1590.8</v>
+        <v>18.299999999999955</v>
       </c>
     </row>
     <row r="1677" spans="1:7" ht="15.75">
@@ -29148,12 +29234,18 @@
       <c r="C1679" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D1679" s="7"/>
-      <c r="E1679" s="7"/>
-      <c r="F1679" s="11"/>
+      <c r="D1679" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1679" s="7">
+        <v>1570.9</v>
+      </c>
+      <c r="F1679" s="11" t="s">
+        <v>361</v>
+      </c>
       <c r="G1679">
         <f t="shared" si="111"/>
-        <v>1471.2</v>
+        <v>-99.700000000000045</v>
       </c>
     </row>
     <row r="1680" spans="1:7" ht="15.75">
@@ -29166,12 +29258,16 @@
       <c r="C1680" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D1680" s="10"/>
-      <c r="E1680" s="7"/>
+      <c r="D1680" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="E1680" s="7">
+        <v>1784.3</v>
+      </c>
       <c r="F1680" s="10"/>
       <c r="G1680">
         <f t="shared" si="111"/>
-        <v>1787.7</v>
+        <v>3.4000000000000909</v>
       </c>
     </row>
     <row r="1681" spans="1:7" ht="15.75">
@@ -29221,11 +29317,15 @@
         <v>74</v>
       </c>
       <c r="D1683" s="7"/>
-      <c r="E1683" s="7"/>
-      <c r="F1683" s="11"/>
+      <c r="E1683" s="7">
+        <v>2795.4</v>
+      </c>
+      <c r="F1683" s="11" t="s">
+        <v>363</v>
+      </c>
       <c r="G1683">
         <f t="shared" si="111"/>
-        <v>2781</v>
+        <v>-14.400000000000091</v>
       </c>
     </row>
     <row r="1684" spans="1:7" ht="15.75">
@@ -29274,12 +29374,16 @@
       <c r="C1686" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D1686" s="7"/>
-      <c r="E1686" s="7"/>
+      <c r="D1686" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1686" s="7">
+        <v>918.7</v>
+      </c>
       <c r="F1686" s="7"/>
       <c r="G1686">
         <f t="shared" si="111"/>
-        <v>925.9</v>
+        <v>7.1999999999999318</v>
       </c>
     </row>
     <row r="1687" spans="1:7" ht="15.75">
@@ -29382,12 +29486,16 @@
       <c r="C1692" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D1692" s="7"/>
-      <c r="E1692" s="7"/>
+      <c r="D1692" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1692" s="7">
+        <v>1060.0999999999999</v>
+      </c>
       <c r="F1692" s="11"/>
       <c r="G1692">
         <f t="shared" si="111"/>
-        <v>1074.5</v>
+        <v>14.400000000000091</v>
       </c>
     </row>
     <row r="1693" spans="1:7" ht="15.75">
@@ -29472,12 +29580,16 @@
       <c r="C1697" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D1697" s="7"/>
-      <c r="E1697" s="7"/>
+      <c r="D1697" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E1697" s="7">
+        <v>794.7</v>
+      </c>
       <c r="F1697" s="7"/>
       <c r="G1697">
         <f t="shared" si="111"/>
-        <v>798.1</v>
+        <v>3.3999999999999773</v>
       </c>
     </row>
     <row r="1698" spans="1:7" ht="15.75">
@@ -29491,11 +29603,15 @@
         <v>89</v>
       </c>
       <c r="D1698" s="7"/>
-      <c r="E1698" s="7"/>
-      <c r="F1698" s="7"/>
+      <c r="E1698" s="7">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="F1698" s="7" t="s">
+        <v>372</v>
+      </c>
       <c r="G1698">
         <f t="shared" si="111"/>
-        <v>443.6</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="1699" spans="1:7" ht="15.75">
@@ -29597,11 +29713,15 @@
       <c r="C1704" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E1704" s="7"/>
-      <c r="F1704" s="8"/>
+      <c r="E1704" s="7">
+        <v>317.60000000000002</v>
+      </c>
+      <c r="F1704" s="8" t="s">
+        <v>360</v>
+      </c>
       <c r="G1704">
         <f t="shared" si="111"/>
-        <v>308.10000000000002</v>
+        <v>-9.5</v>
       </c>
     </row>
     <row r="1705" spans="1:7" ht="15.75">
@@ -29649,10 +29769,15 @@
       <c r="C1707" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E1707" s="7"/>
+      <c r="E1707" s="7">
+        <v>237</v>
+      </c>
+      <c r="F1707" t="s">
+        <v>359</v>
+      </c>
       <c r="G1707" s="7">
         <f t="shared" si="111"/>
-        <v>184.8</v>
+        <v>-52.199999999999989</v>
       </c>
     </row>
     <row r="1708" spans="1:7" ht="15.75">
@@ -30471,6 +30596,4451 @@
       </c>
       <c r="G1761">
         <f t="shared" si="116"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:7" ht="18.75">
+      <c r="A1767" s="3"/>
+      <c r="B1767" s="4">
+        <v>45826</v>
+      </c>
+      <c r="C1767" s="3"/>
+      <c r="D1767" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1767" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1767" s="6"/>
+    </row>
+    <row r="1768" spans="1:7" ht="15.75">
+      <c r="A1768" s="7">
+        <v>1</v>
+      </c>
+      <c r="B1768" s="7">
+        <v>51</v>
+      </c>
+      <c r="C1768" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1768" s="7"/>
+      <c r="E1768" s="7">
+        <v>51</v>
+      </c>
+      <c r="F1768" s="7"/>
+      <c r="G1768">
+        <f>(B1768 - E1768)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:7" ht="15.75">
+      <c r="A1769" s="7">
+        <v>2</v>
+      </c>
+      <c r="B1769" s="7">
+        <v>13</v>
+      </c>
+      <c r="C1769" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1769" s="7">
+        <v>13</v>
+      </c>
+      <c r="F1769" s="7"/>
+      <c r="G1769">
+        <f t="shared" ref="G1769:G1789" si="117">(B1769 - E1769)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:7" ht="15.75">
+      <c r="A1770" s="7">
+        <v>3</v>
+      </c>
+      <c r="B1770" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1770" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1770" s="7"/>
+      <c r="E1770" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1770" s="7"/>
+      <c r="G1770" t="e">
+        <f t="shared" si="117"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:7" ht="15.75">
+      <c r="A1771" s="7">
+        <v>4</v>
+      </c>
+      <c r="B1771" s="7">
+        <v>13</v>
+      </c>
+      <c r="C1771" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1771" s="7"/>
+      <c r="E1771" s="7">
+        <v>13</v>
+      </c>
+      <c r="F1771" s="7"/>
+      <c r="G1771">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:7" ht="15.75">
+      <c r="A1772" s="7">
+        <v>5</v>
+      </c>
+      <c r="B1772" s="7">
+        <v>10</v>
+      </c>
+      <c r="C1772" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1772" s="7"/>
+      <c r="E1772" s="7">
+        <v>10</v>
+      </c>
+      <c r="F1772" s="7"/>
+      <c r="G1772">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:7" ht="15.75">
+      <c r="A1773" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1773" s="7">
+        <v>17</v>
+      </c>
+      <c r="C1773" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1773" s="7"/>
+      <c r="E1773" s="7">
+        <v>17</v>
+      </c>
+      <c r="F1773" s="7"/>
+      <c r="G1773">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:7" ht="15.75">
+      <c r="A1774" s="7">
+        <v>7</v>
+      </c>
+      <c r="B1774" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1774" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1774" s="7"/>
+      <c r="E1774" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1774" s="7"/>
+      <c r="G1774" t="e">
+        <f t="shared" si="117"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:7" ht="15.75">
+      <c r="A1775" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1775" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1775" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1775" s="7"/>
+      <c r="E1775" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1775" s="7"/>
+      <c r="G1775" t="e">
+        <f t="shared" si="117"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:7" ht="15.75">
+      <c r="A1776" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1776" s="7">
+        <v>24</v>
+      </c>
+      <c r="C1776" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1776" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1776" s="7"/>
+      <c r="G1776">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:7" ht="15.75">
+      <c r="A1777" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1777" s="7">
+        <v>12</v>
+      </c>
+      <c r="C1777" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1777" s="8"/>
+      <c r="E1777" s="7">
+        <v>12</v>
+      </c>
+      <c r="F1777" s="7"/>
+      <c r="G1777">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:7" ht="15.75">
+      <c r="A1778" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1778" s="7">
+        <v>21</v>
+      </c>
+      <c r="C1778" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1778" s="7"/>
+      <c r="E1778" s="7">
+        <v>21</v>
+      </c>
+      <c r="F1778" s="7"/>
+      <c r="G1778">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:7" ht="15.75">
+      <c r="A1779" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1779" s="7">
+        <v>24</v>
+      </c>
+      <c r="C1779" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1779" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1779" s="7">
+        <v>23</v>
+      </c>
+      <c r="F1779" s="7"/>
+      <c r="G1779">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:7" ht="15.75">
+      <c r="A1780" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1780" s="7">
+        <v>14</v>
+      </c>
+      <c r="C1780" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1780" s="8"/>
+      <c r="E1780" s="7">
+        <v>14</v>
+      </c>
+      <c r="F1780" s="7"/>
+      <c r="G1780">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:7" ht="15.75">
+      <c r="A1781" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1781" s="7">
+        <v>17</v>
+      </c>
+      <c r="C1781" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1781" s="7">
+        <v>17</v>
+      </c>
+      <c r="F1781" s="7"/>
+      <c r="G1781">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:7" ht="15.75">
+      <c r="A1782" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1782" s="7">
+        <v>22</v>
+      </c>
+      <c r="C1782" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1782" s="7"/>
+      <c r="E1782" s="7">
+        <v>22</v>
+      </c>
+      <c r="F1782" s="7"/>
+      <c r="G1782">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:7" ht="15.75">
+      <c r="A1783" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1783" s="7">
+        <v>22</v>
+      </c>
+      <c r="C1783" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1783" s="7"/>
+      <c r="E1783" s="7">
+        <v>22</v>
+      </c>
+      <c r="F1783" s="7"/>
+      <c r="G1783">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:7" ht="15.75">
+      <c r="B1784" s="7"/>
+      <c r="E1784" s="7"/>
+      <c r="F1784" s="7"/>
+      <c r="G1784">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:7" ht="15.75">
+      <c r="A1785" s="7"/>
+      <c r="B1785" s="7"/>
+      <c r="C1785" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1785" s="7"/>
+      <c r="F1785" s="7"/>
+      <c r="G1785">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:7" ht="15.75">
+      <c r="A1786" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1786" s="7">
+        <v>6</v>
+      </c>
+      <c r="C1786" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1786" s="7"/>
+      <c r="E1786" s="7">
+        <v>6</v>
+      </c>
+      <c r="F1786" s="7"/>
+      <c r="G1786">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:7" ht="15.75">
+      <c r="A1787" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1787" s="7">
+        <v>5</v>
+      </c>
+      <c r="C1787" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1787" s="7"/>
+      <c r="E1787" s="7">
+        <v>5</v>
+      </c>
+      <c r="F1787" s="7"/>
+      <c r="G1787">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:7" ht="15.75">
+      <c r="A1788" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1788" s="7">
+        <v>4</v>
+      </c>
+      <c r="C1788" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1788" s="7"/>
+      <c r="E1788" s="7">
+        <v>4</v>
+      </c>
+      <c r="F1788" s="7"/>
+      <c r="G1788">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:7" ht="15.75">
+      <c r="A1789" s="7"/>
+      <c r="B1789" s="7"/>
+      <c r="C1789" s="7"/>
+      <c r="D1789" s="7"/>
+      <c r="E1789" s="7"/>
+      <c r="F1789" s="7"/>
+      <c r="G1789">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:7" ht="15.75">
+      <c r="A1790" s="7"/>
+      <c r="B1790" s="7"/>
+      <c r="C1790" s="7"/>
+      <c r="D1790" s="7"/>
+      <c r="E1790" s="7"/>
+      <c r="F1790" s="7"/>
+      <c r="G1790">
+        <f>(B1790 - E1790)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:7" ht="15.75">
+      <c r="A1791" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1791" s="7">
+        <v>18</v>
+      </c>
+      <c r="C1791" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1791" s="7"/>
+      <c r="E1791" s="7">
+        <v>18</v>
+      </c>
+      <c r="F1791" s="7"/>
+      <c r="G1791">
+        <f t="shared" ref="G1791:G1802" si="118">(B1791 - E1791)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:7" ht="15.75">
+      <c r="A1792" s="7"/>
+      <c r="B1792" s="7"/>
+      <c r="C1792" s="7"/>
+      <c r="D1792" s="7"/>
+      <c r="E1792" s="7"/>
+      <c r="F1792" s="7"/>
+      <c r="G1792">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:7" ht="15.75">
+      <c r="B1793" s="7"/>
+      <c r="E1793" s="7"/>
+      <c r="F1793" s="7"/>
+      <c r="G1793">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:7" ht="15.75">
+      <c r="A1794" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1794" s="7">
+        <v>6</v>
+      </c>
+      <c r="C1794" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1794" s="7"/>
+      <c r="E1794" s="7">
+        <v>6</v>
+      </c>
+      <c r="F1794" s="7"/>
+      <c r="G1794">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:7" ht="15.75">
+      <c r="A1795" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1795" s="7">
+        <v>8</v>
+      </c>
+      <c r="C1795" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1795" s="7"/>
+      <c r="E1795" s="7">
+        <v>8</v>
+      </c>
+      <c r="F1795" s="7"/>
+      <c r="G1795">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:7" ht="15.75">
+      <c r="A1796" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1796" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1796" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1796" s="7"/>
+      <c r="E1796" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1796" s="7"/>
+      <c r="G1796" t="e">
+        <f t="shared" si="118"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:7" ht="15.75">
+      <c r="A1797" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1797" s="7">
+        <v>35</v>
+      </c>
+      <c r="C1797" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1797" s="7"/>
+      <c r="E1797" s="7">
+        <v>35</v>
+      </c>
+      <c r="F1797" s="7"/>
+      <c r="G1797">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:7" ht="15.75">
+      <c r="A1798" s="7"/>
+      <c r="B1798" s="7"/>
+      <c r="C1798" s="7"/>
+      <c r="D1798" s="7"/>
+      <c r="E1798" s="7"/>
+      <c r="F1798" s="7"/>
+      <c r="G1798">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:7" ht="15.75">
+      <c r="A1799" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1799" s="7">
+        <v>10</v>
+      </c>
+      <c r="C1799" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1799" s="7"/>
+      <c r="E1799" s="7">
+        <v>10</v>
+      </c>
+      <c r="F1799" s="7"/>
+      <c r="G1799">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:7" ht="15.75">
+      <c r="A1800" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1800" s="7">
+        <v>7</v>
+      </c>
+      <c r="C1800" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1800" s="7"/>
+      <c r="E1800" s="7">
+        <v>7</v>
+      </c>
+      <c r="F1800" s="7"/>
+      <c r="G1800">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:7" ht="15.75">
+      <c r="A1801" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1801" s="7">
+        <v>6</v>
+      </c>
+      <c r="C1801" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1801" s="7"/>
+      <c r="E1801" s="7">
+        <v>6</v>
+      </c>
+      <c r="F1801" s="7"/>
+      <c r="G1801">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:7" ht="15.75">
+      <c r="A1802" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1802" s="7">
+        <v>12</v>
+      </c>
+      <c r="C1802" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1802" s="7"/>
+      <c r="E1802" s="7">
+        <v>12</v>
+      </c>
+      <c r="F1802" s="7"/>
+      <c r="G1802">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:7" ht="15.75">
+      <c r="A1803" s="7"/>
+      <c r="B1803" s="7"/>
+      <c r="C1803" s="7"/>
+      <c r="D1803" s="7"/>
+      <c r="E1803" s="7"/>
+      <c r="F1803" s="7"/>
+    </row>
+    <row r="1804" spans="1:7" ht="15.75">
+      <c r="A1804" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1804" s="7">
+        <v>2</v>
+      </c>
+      <c r="C1804" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1804" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1804" s="7"/>
+      <c r="G1804">
+        <f t="shared" ref="G1804:G1805" si="119">(B1804 - E1804)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:7" ht="15.75">
+      <c r="A1805" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1805" s="7">
+        <v>1</v>
+      </c>
+      <c r="C1805" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1805" s="7">
+        <v>1</v>
+      </c>
+      <c r="F1805" s="7"/>
+      <c r="G1805">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:7" ht="15.75">
+      <c r="A1806" s="7"/>
+      <c r="B1806" s="7"/>
+      <c r="C1806" s="7"/>
+      <c r="E1806" s="7"/>
+      <c r="F1806" s="7"/>
+    </row>
+    <row r="1807" spans="1:7" ht="15.75">
+      <c r="A1807" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1807" s="7"/>
+      <c r="C1807" s="7"/>
+      <c r="E1807" s="7"/>
+      <c r="F1807" s="7"/>
+    </row>
+    <row r="1808" spans="1:7" ht="15.75">
+      <c r="B1808" s="7"/>
+      <c r="C1808" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1808" s="7"/>
+      <c r="E1808" s="7"/>
+      <c r="F1808" s="7"/>
+      <c r="G1808">
+        <f t="shared" ref="G1808:G1845" si="120">(B1808 - E1808)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:7" ht="15.75">
+      <c r="A1809" s="7">
+        <v>1</v>
+      </c>
+      <c r="B1809" s="7">
+        <v>976.5</v>
+      </c>
+      <c r="C1809" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1809" s="7"/>
+      <c r="E1809" s="7">
+        <v>976.5</v>
+      </c>
+      <c r="F1809" s="7"/>
+      <c r="G1809">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:7" ht="15.75">
+      <c r="A1810" s="7">
+        <v>2</v>
+      </c>
+      <c r="B1810" s="7">
+        <v>379.8</v>
+      </c>
+      <c r="C1810" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1810" s="7">
+        <v>379.9</v>
+      </c>
+      <c r="F1810" s="7"/>
+      <c r="G1810">
+        <f t="shared" si="120"/>
+        <v>-9.9999999999965894E-2</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:7" ht="15.75">
+      <c r="A1811" s="7">
+        <v>3</v>
+      </c>
+      <c r="B1811" s="7">
+        <v>724.9</v>
+      </c>
+      <c r="C1811" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1811" s="7"/>
+      <c r="E1811" s="7">
+        <v>724.9</v>
+      </c>
+      <c r="F1811" s="7"/>
+      <c r="G1811">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:7" ht="15.75">
+      <c r="A1812" s="7">
+        <v>4</v>
+      </c>
+      <c r="B1812" s="7">
+        <v>1572.5</v>
+      </c>
+      <c r="C1812" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1812" s="7"/>
+      <c r="E1812" s="7">
+        <v>1572</v>
+      </c>
+      <c r="F1812" s="7"/>
+      <c r="G1812">
+        <f t="shared" si="120"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:7" ht="15.75">
+      <c r="A1813" s="7">
+        <v>5</v>
+      </c>
+      <c r="B1813" s="7">
+        <v>1510.5</v>
+      </c>
+      <c r="C1813" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1813" s="7"/>
+      <c r="E1813" s="7">
+        <v>1510.6</v>
+      </c>
+      <c r="F1813" s="7"/>
+      <c r="G1813">
+        <f t="shared" si="120"/>
+        <v>-9.9999999999909051E-2</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:7" ht="15.75">
+      <c r="A1814" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1814" s="7">
+        <v>2515.9</v>
+      </c>
+      <c r="C1814" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1814" s="7"/>
+      <c r="E1814" s="7">
+        <v>2515.6999999999998</v>
+      </c>
+      <c r="F1814" s="11"/>
+      <c r="G1814">
+        <f t="shared" si="120"/>
+        <v>0.20000000000027285</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:7" ht="15.75">
+      <c r="A1815" s="7">
+        <v>7</v>
+      </c>
+      <c r="B1815" s="7">
+        <v>1570.9</v>
+      </c>
+      <c r="C1815" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1815" s="7"/>
+      <c r="E1815" s="7">
+        <v>1570.7</v>
+      </c>
+      <c r="F1815" s="11"/>
+      <c r="G1815">
+        <f t="shared" si="120"/>
+        <v>0.20000000000004547</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:7" ht="15.75">
+      <c r="A1816" s="7">
+        <v>8</v>
+      </c>
+      <c r="B1816" s="7">
+        <v>1784.3</v>
+      </c>
+      <c r="C1816" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1816" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1816" s="7">
+        <v>1779.7</v>
+      </c>
+      <c r="F1816" s="10"/>
+      <c r="G1816">
+        <f t="shared" si="120"/>
+        <v>4.5999999999999091</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:7" ht="15.75">
+      <c r="A1817" s="7">
+        <v>9</v>
+      </c>
+      <c r="B1817" s="7">
+        <v>1548.1</v>
+      </c>
+      <c r="C1817" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1817" s="7"/>
+      <c r="E1817" s="7">
+        <v>1548.3</v>
+      </c>
+      <c r="F1817" s="7"/>
+      <c r="G1817">
+        <f t="shared" si="120"/>
+        <v>-0.20000000000004547</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:7" ht="15.75">
+      <c r="A1818" s="7">
+        <v>10</v>
+      </c>
+      <c r="B1818" s="7">
+        <v>527.70000000000005</v>
+      </c>
+      <c r="C1818" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1818" s="7"/>
+      <c r="E1818" s="7">
+        <v>527.9</v>
+      </c>
+      <c r="F1818" s="7"/>
+      <c r="G1818">
+        <f t="shared" si="120"/>
+        <v>-0.19999999999993179</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:7" ht="15.75">
+      <c r="A1819" s="7">
+        <v>11</v>
+      </c>
+      <c r="B1819" s="7">
+        <v>2795.4</v>
+      </c>
+      <c r="C1819" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1819" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="E1819" s="7">
+        <v>2778.1</v>
+      </c>
+      <c r="F1819" s="11"/>
+      <c r="G1819">
+        <f t="shared" si="120"/>
+        <v>17.300000000000182</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:7" ht="15.75">
+      <c r="A1820" s="7">
+        <v>12</v>
+      </c>
+      <c r="B1820" s="7">
+        <v>402.7</v>
+      </c>
+      <c r="C1820" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1820" s="7"/>
+      <c r="E1820" s="7">
+        <v>402.7</v>
+      </c>
+      <c r="F1820" s="7"/>
+      <c r="G1820">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:7" ht="15.75">
+      <c r="A1821" s="7">
+        <v>13</v>
+      </c>
+      <c r="B1821" s="7">
+        <v>819.1</v>
+      </c>
+      <c r="C1821" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1821" s="7"/>
+      <c r="E1821" s="7">
+        <v>819</v>
+      </c>
+      <c r="F1821" s="7"/>
+      <c r="G1821">
+        <f t="shared" si="120"/>
+        <v>0.10000000000002274</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:7" ht="15.75">
+      <c r="A1822" s="7">
+        <v>14</v>
+      </c>
+      <c r="B1822" s="7">
+        <v>918.7</v>
+      </c>
+      <c r="C1822" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1822" s="7"/>
+      <c r="E1822" s="7">
+        <v>918.7</v>
+      </c>
+      <c r="F1822" s="7"/>
+      <c r="G1822">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:7" ht="15.75">
+      <c r="A1823" s="7">
+        <v>15</v>
+      </c>
+      <c r="B1823" s="7">
+        <v>362.1</v>
+      </c>
+      <c r="C1823" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1823" s="7"/>
+      <c r="E1823" s="7">
+        <v>362.1</v>
+      </c>
+      <c r="F1823" s="7"/>
+      <c r="G1823">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:7" ht="15.75">
+      <c r="A1824" s="7">
+        <v>16</v>
+      </c>
+      <c r="B1824" s="7">
+        <v>782.6</v>
+      </c>
+      <c r="C1824" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1824" s="7"/>
+      <c r="E1824" s="7">
+        <v>781.8</v>
+      </c>
+      <c r="F1824" s="7"/>
+      <c r="G1824">
+        <f t="shared" si="120"/>
+        <v>0.80000000000006821</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:7" ht="15.75">
+      <c r="A1825" s="7">
+        <v>17</v>
+      </c>
+      <c r="B1825" s="7">
+        <v>622.1</v>
+      </c>
+      <c r="C1825" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1825" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1825" s="7">
+        <v>607.6</v>
+      </c>
+      <c r="F1825" s="11"/>
+      <c r="G1825">
+        <f t="shared" si="120"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:7" ht="15.75">
+      <c r="A1826" s="7">
+        <v>18</v>
+      </c>
+      <c r="B1826" s="10">
+        <v>323.39999999999998</v>
+      </c>
+      <c r="C1826" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1826" s="7"/>
+      <c r="E1826" s="10">
+        <v>323.39999999999998</v>
+      </c>
+      <c r="F1826" s="7"/>
+      <c r="G1826">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:7" ht="15.75">
+      <c r="A1827" s="7">
+        <v>19</v>
+      </c>
+      <c r="B1827" s="7">
+        <v>2887.3</v>
+      </c>
+      <c r="C1827" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1827" s="7"/>
+      <c r="E1827" s="7">
+        <v>2887.1</v>
+      </c>
+      <c r="F1827" s="7"/>
+      <c r="G1827">
+        <f t="shared" si="120"/>
+        <v>0.20000000000027285</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:7" ht="15.75">
+      <c r="A1828" s="7">
+        <v>20</v>
+      </c>
+      <c r="B1828" s="7">
+        <v>1060.0999999999999</v>
+      </c>
+      <c r="C1828" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1828" s="7"/>
+      <c r="E1828" s="7">
+        <v>1060.0999999999999</v>
+      </c>
+      <c r="F1828" s="11"/>
+      <c r="G1828">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:7" ht="15.75">
+      <c r="A1829" s="7">
+        <v>21</v>
+      </c>
+      <c r="B1829" s="7">
+        <v>234.8</v>
+      </c>
+      <c r="C1829" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1829" s="7"/>
+      <c r="E1829" s="7">
+        <v>234.7</v>
+      </c>
+      <c r="F1829" s="7"/>
+      <c r="G1829">
+        <f t="shared" si="120"/>
+        <v>0.10000000000002274</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:7" ht="15.75">
+      <c r="A1830" s="7">
+        <v>22</v>
+      </c>
+      <c r="B1830" s="7">
+        <v>1777.2</v>
+      </c>
+      <c r="C1830" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1830" s="7"/>
+      <c r="E1830" s="7">
+        <v>1777.1</v>
+      </c>
+      <c r="F1830" s="7"/>
+      <c r="G1830">
+        <f t="shared" si="120"/>
+        <v>0.10000000000013642</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:7" ht="15.75">
+      <c r="A1831" s="7">
+        <v>23</v>
+      </c>
+      <c r="B1831" s="7">
+        <v>1154.5</v>
+      </c>
+      <c r="C1831" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1831" s="7"/>
+      <c r="E1831" s="7">
+        <v>1154.4000000000001</v>
+      </c>
+      <c r="F1831" s="7"/>
+      <c r="G1831">
+        <f t="shared" si="120"/>
+        <v>9.9999999999909051E-2</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:7" ht="15.75">
+      <c r="A1832" s="7">
+        <v>24</v>
+      </c>
+      <c r="B1832" s="7">
+        <v>1312.5</v>
+      </c>
+      <c r="C1832" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1832" s="12"/>
+      <c r="E1832" s="7">
+        <v>1312.5</v>
+      </c>
+      <c r="F1832" s="11"/>
+      <c r="G1832">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:7" ht="15.75">
+      <c r="A1833" s="7">
+        <v>25</v>
+      </c>
+      <c r="B1833" s="7">
+        <v>794.7</v>
+      </c>
+      <c r="C1833" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1833" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1833" s="7">
+        <v>789.2</v>
+      </c>
+      <c r="F1833" s="7"/>
+      <c r="G1833">
+        <f t="shared" si="120"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:7" ht="15.75">
+      <c r="A1834" s="7">
+        <v>26</v>
+      </c>
+      <c r="B1834" s="7">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="C1834" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1834" s="7"/>
+      <c r="E1834" s="7">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="F1834" s="7"/>
+      <c r="G1834">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:7" ht="15.75">
+      <c r="A1835" s="7">
+        <v>27</v>
+      </c>
+      <c r="B1835" s="7">
+        <v>1077</v>
+      </c>
+      <c r="C1835" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1835" s="7"/>
+      <c r="E1835" s="7">
+        <v>1077.5999999999999</v>
+      </c>
+      <c r="F1835" s="11"/>
+      <c r="G1835">
+        <f t="shared" si="120"/>
+        <v>-0.59999999999990905</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:7" ht="15.75">
+      <c r="A1836" s="7">
+        <v>28</v>
+      </c>
+      <c r="B1836" s="7">
+        <v>2675.9</v>
+      </c>
+      <c r="C1836" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1836" s="7"/>
+      <c r="E1836" s="7">
+        <v>2675.7</v>
+      </c>
+      <c r="F1836" s="7"/>
+      <c r="G1836">
+        <f t="shared" si="120"/>
+        <v>0.20000000000027285</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:7" ht="15.75">
+      <c r="A1837" s="7">
+        <v>29</v>
+      </c>
+      <c r="B1837" s="7">
+        <v>2478.1</v>
+      </c>
+      <c r="C1837" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1837" s="7"/>
+      <c r="E1837" s="7">
+        <v>2477.9</v>
+      </c>
+      <c r="F1837" s="7"/>
+      <c r="G1837">
+        <f t="shared" si="120"/>
+        <v>0.1999999999998181</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:7" ht="15.75">
+      <c r="A1838" s="7">
+        <v>30</v>
+      </c>
+      <c r="B1838" s="7">
+        <v>3651.9</v>
+      </c>
+      <c r="C1838" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1838" s="7"/>
+      <c r="E1838" s="7">
+        <v>3651.8</v>
+      </c>
+      <c r="F1838" s="7"/>
+      <c r="G1838">
+        <f t="shared" si="120"/>
+        <v>9.9999999999909051E-2</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:7" ht="15.75">
+      <c r="A1839" s="7">
+        <v>31</v>
+      </c>
+      <c r="B1839" s="7">
+        <v>1091.9000000000001</v>
+      </c>
+      <c r="C1839" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1839" s="8"/>
+      <c r="E1839" s="7">
+        <v>1091.7</v>
+      </c>
+      <c r="G1839">
+        <f t="shared" si="120"/>
+        <v>0.20000000000004547</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:7" ht="15.75">
+      <c r="A1840" s="7">
+        <v>32</v>
+      </c>
+      <c r="B1840" s="7">
+        <v>317.60000000000002</v>
+      </c>
+      <c r="C1840" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1840" s="7">
+        <v>317.60000000000002</v>
+      </c>
+      <c r="F1840" s="8"/>
+      <c r="G1840">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:7" ht="15.75">
+      <c r="A1841" s="7">
+        <v>34</v>
+      </c>
+      <c r="B1841" s="7">
+        <v>2574.8000000000002</v>
+      </c>
+      <c r="C1841" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1841" s="7">
+        <v>2574.8000000000002</v>
+      </c>
+      <c r="F1841" s="11"/>
+      <c r="G1841" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:7" ht="15.75">
+      <c r="A1842" s="7">
+        <v>35</v>
+      </c>
+      <c r="B1842" s="7">
+        <v>3349</v>
+      </c>
+      <c r="C1842" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1842" s="8"/>
+      <c r="E1842" s="7">
+        <v>3349</v>
+      </c>
+      <c r="F1842" s="11"/>
+      <c r="G1842" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:7" ht="15.75">
+      <c r="A1843" s="7">
+        <v>36</v>
+      </c>
+      <c r="B1843" s="7">
+        <v>237</v>
+      </c>
+      <c r="C1843" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1843" s="7">
+        <v>237</v>
+      </c>
+      <c r="G1843" s="7">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:7" ht="15.75">
+      <c r="A1844" s="7">
+        <v>37</v>
+      </c>
+      <c r="B1844" s="7">
+        <v>1039.5</v>
+      </c>
+      <c r="C1844" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1844" s="7">
+        <v>1039.4000000000001</v>
+      </c>
+      <c r="F1844" s="11"/>
+      <c r="G1844" s="7">
+        <f t="shared" si="120"/>
+        <v>9.9999999999909051E-2</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:7" ht="15.75">
+      <c r="A1845" s="7">
+        <v>38</v>
+      </c>
+      <c r="B1845" s="7">
+        <v>2438.4</v>
+      </c>
+      <c r="C1845" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1845" s="7">
+        <v>2438.3000000000002</v>
+      </c>
+      <c r="F1845" s="11"/>
+      <c r="G1845" s="7">
+        <f t="shared" si="120"/>
+        <v>9.9999999999909051E-2</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:7" ht="15.75">
+      <c r="A1846" s="7"/>
+      <c r="B1846" s="7"/>
+      <c r="C1846" s="7"/>
+      <c r="E1846" s="7"/>
+      <c r="F1846" s="11"/>
+      <c r="G1846" s="7"/>
+    </row>
+    <row r="1847" spans="1:7" ht="15.75">
+      <c r="A1847" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1847" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1847" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1847" s="10"/>
+      <c r="E1847" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1847" s="10"/>
+      <c r="G1847" t="e">
+        <f t="shared" ref="G1847:G1850" si="121">(B1847 - E1847)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:7" ht="15.75">
+      <c r="A1848" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1848" s="7">
+        <v>56</v>
+      </c>
+      <c r="C1848" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1848" s="7"/>
+      <c r="E1848" s="7">
+        <v>56</v>
+      </c>
+      <c r="F1848" s="7"/>
+      <c r="G1848">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:7" ht="15.75">
+      <c r="A1849" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1849" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1849" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1849" s="7"/>
+      <c r="E1849" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F1849" s="7"/>
+      <c r="G1849" t="e">
+        <f t="shared" si="121"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:7" ht="15.75">
+      <c r="A1850" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1850" s="7">
+        <v>13</v>
+      </c>
+      <c r="C1850" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1850" s="7">
+        <v>13</v>
+      </c>
+      <c r="F1850" s="11"/>
+      <c r="G1850" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:7" ht="15.75">
+      <c r="A1851" s="7"/>
+      <c r="B1851" s="7"/>
+      <c r="C1851" s="7"/>
+      <c r="E1851" s="7"/>
+      <c r="F1851" s="11"/>
+      <c r="G1851" s="7"/>
+    </row>
+    <row r="1852" spans="1:7" ht="15.75">
+      <c r="A1852" s="7"/>
+      <c r="B1852" s="7"/>
+      <c r="C1852" s="7"/>
+      <c r="E1852" s="7"/>
+      <c r="F1852" s="11"/>
+      <c r="G1852" s="7"/>
+    </row>
+    <row r="1853" spans="1:7" ht="15.75">
+      <c r="A1853" s="7"/>
+      <c r="B1853" s="3"/>
+      <c r="C1853" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1853" s="3"/>
+      <c r="E1853" s="3"/>
+      <c r="F1853" s="3"/>
+      <c r="G1853">
+        <f t="shared" ref="G1853:G1872" si="122">(B1853 - E1853)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:7" ht="15.75">
+      <c r="A1854" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1854" s="10">
+        <v>2250</v>
+      </c>
+      <c r="C1854" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1854" s="10"/>
+      <c r="E1854" s="10">
+        <v>2250</v>
+      </c>
+      <c r="F1854" s="10"/>
+      <c r="G1854" s="13">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:7" ht="15.75">
+      <c r="A1855" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1855" s="10">
+        <v>2042</v>
+      </c>
+      <c r="C1855" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1855" s="10"/>
+      <c r="E1855" s="10">
+        <v>2042</v>
+      </c>
+      <c r="F1855" s="10"/>
+      <c r="G1855" s="13">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:7" ht="15.75">
+      <c r="A1856" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1856" s="11"/>
+      <c r="C1856" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1856" s="14"/>
+      <c r="E1856" s="11"/>
+      <c r="F1856" s="14"/>
+      <c r="G1856" s="14">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:7" ht="15.75">
+      <c r="A1857" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1857" s="11"/>
+      <c r="C1857" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1857" s="14"/>
+      <c r="E1857" s="11"/>
+      <c r="F1857" s="14"/>
+      <c r="G1857" s="14">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:7" ht="15.75">
+      <c r="A1858" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1858" s="7">
+        <v>1050</v>
+      </c>
+      <c r="C1858" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1858" s="7">
+        <v>1050</v>
+      </c>
+      <c r="G1858">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:7" ht="15.75">
+      <c r="A1859" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1859" s="7">
+        <v>2037</v>
+      </c>
+      <c r="C1859" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1859" s="7">
+        <v>2037</v>
+      </c>
+      <c r="F1859" s="7"/>
+      <c r="G1859">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:7" ht="15.75">
+      <c r="A1860" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1860" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C1860" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1860" s="7"/>
+      <c r="E1860" s="7">
+        <v>3000</v>
+      </c>
+      <c r="G1860">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:7" ht="15.75">
+      <c r="A1861" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1861" s="7">
+        <v>2250</v>
+      </c>
+      <c r="C1861" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1861" s="7"/>
+      <c r="E1861" s="7">
+        <v>2250</v>
+      </c>
+      <c r="F1861" s="7"/>
+      <c r="G1861">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:7" ht="15.75">
+      <c r="A1862" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1862" s="7">
+        <v>4350</v>
+      </c>
+      <c r="C1862" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1862" s="7">
+        <v>4350</v>
+      </c>
+      <c r="G1862">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:7" ht="15.75">
+      <c r="A1863" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1863" s="7">
+        <v>4350</v>
+      </c>
+      <c r="C1863" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1863" s="7"/>
+      <c r="E1863" s="7">
+        <v>4350</v>
+      </c>
+      <c r="F1863" s="7"/>
+      <c r="G1863">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:7" ht="15.75">
+      <c r="A1864" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1864" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C1864" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1864" s="7"/>
+      <c r="E1864" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F1864" s="7"/>
+      <c r="G1864">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:7" ht="15.75">
+      <c r="A1865" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1865" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C1865" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1865" s="7"/>
+      <c r="E1865" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F1865" s="7"/>
+      <c r="G1865">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:7" ht="15.75">
+      <c r="A1866" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1866" s="7">
+        <v>3450</v>
+      </c>
+      <c r="C1866" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1866" s="7"/>
+      <c r="E1866" s="7">
+        <v>3450</v>
+      </c>
+      <c r="F1866" s="7"/>
+      <c r="G1866">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:7" ht="15.75">
+      <c r="A1867" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1867" s="7">
+        <v>2256</v>
+      </c>
+      <c r="C1867" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1867" s="7">
+        <v>2256</v>
+      </c>
+      <c r="F1867" s="7"/>
+      <c r="G1867">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:7" ht="15.75">
+      <c r="A1868" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1868" s="10">
+        <v>2400</v>
+      </c>
+      <c r="C1868" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1868" s="10"/>
+      <c r="E1868" s="10">
+        <v>2400</v>
+      </c>
+      <c r="F1868" s="10"/>
+      <c r="G1868" s="13">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:7" ht="15.75">
+      <c r="A1869" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1869" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1869" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1869" s="10"/>
+      <c r="E1869" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1869" s="10"/>
+      <c r="G1869" s="13" t="e">
+        <f t="shared" si="122"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:7" ht="15.75">
+      <c r="A1870" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1870" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1870" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1870" s="10"/>
+      <c r="E1870" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1870" s="10"/>
+      <c r="G1870" s="13" t="e">
+        <f t="shared" si="122"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:7" ht="15.75">
+      <c r="A1871" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1871" s="7">
+        <v>2058</v>
+      </c>
+      <c r="C1871" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1871" s="7"/>
+      <c r="E1871" s="7">
+        <v>2058</v>
+      </c>
+      <c r="F1871" s="7"/>
+      <c r="G1871">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:7" ht="15.75">
+      <c r="A1872" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1872" s="10">
+        <v>2400</v>
+      </c>
+      <c r="C1872" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1872" s="7"/>
+      <c r="E1872" s="10">
+        <v>2400</v>
+      </c>
+      <c r="F1872" s="7"/>
+      <c r="G1872">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:7" ht="15.75">
+      <c r="A1873" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1873" s="7">
+        <v>2432</v>
+      </c>
+      <c r="C1873" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1873" s="7"/>
+      <c r="E1873" s="7">
+        <v>2432</v>
+      </c>
+      <c r="F1873" s="7"/>
+      <c r="G1873" t="e">
+        <f>(B1873 -#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:7" ht="15.75">
+      <c r="A1874" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1874" s="7">
+        <v>4650</v>
+      </c>
+      <c r="C1874" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1874" s="7">
+        <v>4650</v>
+      </c>
+      <c r="F1874" s="8"/>
+      <c r="G1874">
+        <f t="shared" ref="G1874:G1880" si="123">(B1874 - E1874)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:7" ht="15.75">
+      <c r="A1875" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1875" s="10">
+        <v>2800</v>
+      </c>
+      <c r="C1875" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1875" s="10">
+        <v>2800</v>
+      </c>
+      <c r="G1875">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:7" ht="15.75">
+      <c r="A1876" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1876" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1876" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1876" s="7"/>
+      <c r="E1876" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1876" s="7"/>
+      <c r="G1876" t="e">
+        <f t="shared" si="123"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:7" ht="15.75">
+      <c r="A1877" s="15"/>
+      <c r="B1877" s="16"/>
+      <c r="C1877" s="15"/>
+      <c r="D1877" s="16"/>
+      <c r="E1877" s="16"/>
+      <c r="F1877" s="16"/>
+      <c r="G1877">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:7" ht="15.75">
+      <c r="A1878" s="7"/>
+      <c r="C1878" s="7"/>
+      <c r="D1878" s="7"/>
+      <c r="F1878" s="7"/>
+      <c r="G1878">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:7" ht="15.75">
+      <c r="A1879" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1879" s="7">
+        <v>20</v>
+      </c>
+      <c r="C1879" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1879" s="7"/>
+      <c r="E1879" s="7">
+        <v>20</v>
+      </c>
+      <c r="F1879" s="7"/>
+      <c r="G1879">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:7" ht="15.75">
+      <c r="A1880" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1880" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1880" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1880" s="17"/>
+      <c r="E1880" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1880" s="7"/>
+      <c r="G1880" t="e">
+        <f t="shared" si="123"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:7" ht="15.75">
+      <c r="A1881" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1881" s="17">
+        <v>14</v>
+      </c>
+      <c r="C1881" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1881" s="17"/>
+      <c r="E1881" s="17">
+        <v>14</v>
+      </c>
+      <c r="F1881" s="7"/>
+    </row>
+    <row r="1882" spans="1:7" ht="15.75">
+      <c r="A1882" s="18"/>
+      <c r="B1882" s="17"/>
+      <c r="C1882" s="18"/>
+      <c r="D1882" s="18"/>
+      <c r="E1882" s="17"/>
+      <c r="F1882" s="17"/>
+      <c r="G1882">
+        <f t="shared" ref="G1882:G1883" si="124">(B1882 - E1882)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:7" ht="15.75">
+      <c r="A1883" s="7"/>
+      <c r="B1883" s="7"/>
+      <c r="C1883" s="7"/>
+      <c r="E1883" s="7"/>
+      <c r="G1883">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:7" ht="15.75">
+      <c r="A1884" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1884" s="7">
+        <v>5</v>
+      </c>
+      <c r="C1884" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1884" s="7"/>
+      <c r="E1884" s="7">
+        <v>5</v>
+      </c>
+      <c r="F1884" s="7"/>
+      <c r="G1884" t="e">
+        <f>(E1884 -#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:7" ht="15.75">
+      <c r="B1885" s="7"/>
+      <c r="E1885" s="7"/>
+      <c r="G1885">
+        <f t="shared" ref="G1885:G1897" si="125">(B1885 - E1885)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:7">
+      <c r="C1886" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1886">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:7">
+      <c r="A1887" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1887">
+        <v>0</v>
+      </c>
+      <c r="C1887" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1887">
+        <v>0</v>
+      </c>
+      <c r="G1887">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:7">
+      <c r="A1888" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1888">
+        <v>5</v>
+      </c>
+      <c r="C1888" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1888">
+        <v>5</v>
+      </c>
+      <c r="G1888">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:7">
+      <c r="G1889">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:7">
+      <c r="A1890" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1890">
+        <v>6</v>
+      </c>
+      <c r="C1890" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1890">
+        <v>6</v>
+      </c>
+      <c r="G1890">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:7">
+      <c r="A1891" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1891">
+        <v>6</v>
+      </c>
+      <c r="C1891" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1891">
+        <v>6</v>
+      </c>
+      <c r="G1891">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:7">
+      <c r="A1892" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1892">
+        <v>8</v>
+      </c>
+      <c r="C1892" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1892">
+        <v>8</v>
+      </c>
+      <c r="G1892">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:7">
+      <c r="A1893" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1893">
+        <v>10</v>
+      </c>
+      <c r="C1893" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1893">
+        <v>10</v>
+      </c>
+      <c r="G1893">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:7">
+      <c r="A1894" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1894">
+        <v>11</v>
+      </c>
+      <c r="C1894" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1894">
+        <v>11</v>
+      </c>
+      <c r="G1894">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:7">
+      <c r="G1895">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:7">
+      <c r="A1896" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1896">
+        <v>9</v>
+      </c>
+      <c r="C1896" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1896">
+        <v>9</v>
+      </c>
+      <c r="G1896">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:7">
+      <c r="A1897" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1897">
+        <v>9</v>
+      </c>
+      <c r="C1897" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1897">
+        <v>9</v>
+      </c>
+      <c r="G1897">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:7" ht="18.75">
+      <c r="A1902" s="3"/>
+      <c r="B1902" s="4">
+        <v>45827</v>
+      </c>
+      <c r="C1902" s="3"/>
+      <c r="D1902" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1902" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1902" s="6"/>
+    </row>
+    <row r="1903" spans="1:7" ht="15.75">
+      <c r="A1903" s="7">
+        <v>1</v>
+      </c>
+      <c r="B1903" s="7">
+        <v>51</v>
+      </c>
+      <c r="C1903" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1903" s="7"/>
+      <c r="E1903" s="7"/>
+      <c r="F1903" s="7"/>
+      <c r="G1903">
+        <f>(B1903 - E1903)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:7" ht="15.75">
+      <c r="A1904" s="7">
+        <v>2</v>
+      </c>
+      <c r="B1904" s="7">
+        <v>13</v>
+      </c>
+      <c r="C1904" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1904" s="7"/>
+      <c r="F1904" s="7"/>
+      <c r="G1904">
+        <f t="shared" ref="G1904:G1924" si="126">(B1904 - E1904)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:7" ht="15.75">
+      <c r="A1905" s="7">
+        <v>3</v>
+      </c>
+      <c r="B1905" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1905" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1905" s="7"/>
+      <c r="E1905" s="7"/>
+      <c r="F1905" s="7"/>
+      <c r="G1905" t="e">
+        <f t="shared" si="126"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:7" ht="15.75">
+      <c r="A1906" s="7">
+        <v>4</v>
+      </c>
+      <c r="B1906" s="7">
+        <v>13</v>
+      </c>
+      <c r="C1906" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1906" s="7"/>
+      <c r="E1906" s="7"/>
+      <c r="F1906" s="7"/>
+      <c r="G1906">
+        <f t="shared" si="126"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:7" ht="15.75">
+      <c r="A1907" s="7">
+        <v>5</v>
+      </c>
+      <c r="B1907" s="7">
+        <v>10</v>
+      </c>
+      <c r="C1907" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1907" s="7"/>
+      <c r="E1907" s="7"/>
+      <c r="F1907" s="7"/>
+      <c r="G1907">
+        <f t="shared" si="126"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:7" ht="15.75">
+      <c r="A1908" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1908" s="7">
+        <v>17</v>
+      </c>
+      <c r="C1908" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1908" s="7"/>
+      <c r="E1908" s="7"/>
+      <c r="F1908" s="7"/>
+      <c r="G1908">
+        <f t="shared" si="126"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:7" ht="15.75">
+      <c r="A1909" s="7">
+        <v>7</v>
+      </c>
+      <c r="B1909" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1909" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1909" s="7"/>
+      <c r="E1909" s="7"/>
+      <c r="F1909" s="7"/>
+      <c r="G1909" t="e">
+        <f t="shared" si="126"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:7" ht="15.75">
+      <c r="A1910" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1910" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1910" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1910" s="7"/>
+      <c r="E1910" s="7"/>
+      <c r="F1910" s="7"/>
+      <c r="G1910" t="e">
+        <f t="shared" si="126"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:7" ht="15.75">
+      <c r="A1911" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1911" s="7">
+        <v>24</v>
+      </c>
+      <c r="C1911" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1911" s="7"/>
+      <c r="F1911" s="7"/>
+      <c r="G1911">
+        <f t="shared" si="126"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:7" ht="15.75">
+      <c r="A1912" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1912" s="7">
+        <v>12</v>
+      </c>
+      <c r="C1912" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1912" s="8"/>
+      <c r="E1912" s="7"/>
+      <c r="F1912" s="7"/>
+      <c r="G1912">
+        <f t="shared" si="126"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:7" ht="15.75">
+      <c r="A1913" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1913" s="7">
+        <v>21</v>
+      </c>
+      <c r="C1913" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1913" s="7"/>
+      <c r="E1913" s="7"/>
+      <c r="F1913" s="7"/>
+      <c r="G1913">
+        <f t="shared" si="126"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:7" ht="15.75">
+      <c r="A1914" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1914" s="7">
+        <v>23</v>
+      </c>
+      <c r="C1914" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1914" s="8"/>
+      <c r="E1914" s="7"/>
+      <c r="F1914" s="7"/>
+      <c r="G1914">
+        <f t="shared" si="126"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:7" ht="15.75">
+      <c r="A1915" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1915" s="7">
+        <v>14</v>
+      </c>
+      <c r="C1915" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1915" s="8"/>
+      <c r="E1915" s="7"/>
+      <c r="F1915" s="7"/>
+      <c r="G1915">
+        <f t="shared" si="126"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:7" ht="15.75">
+      <c r="A1916" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1916" s="7">
+        <v>17</v>
+      </c>
+      <c r="C1916" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1916" s="7"/>
+      <c r="F1916" s="7"/>
+      <c r="G1916">
+        <f t="shared" si="126"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:7" ht="15.75">
+      <c r="A1917" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1917" s="7">
+        <v>22</v>
+      </c>
+      <c r="C1917" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1917" s="7"/>
+      <c r="E1917" s="7"/>
+      <c r="F1917" s="7"/>
+      <c r="G1917">
+        <f t="shared" si="126"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:7" ht="15.75">
+      <c r="A1918" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1918" s="7">
+        <v>22</v>
+      </c>
+      <c r="C1918" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1918" s="7"/>
+      <c r="E1918" s="7"/>
+      <c r="F1918" s="7"/>
+      <c r="G1918">
+        <f t="shared" si="126"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:7" ht="15.75">
+      <c r="B1919" s="7"/>
+      <c r="E1919" s="7"/>
+      <c r="F1919" s="7"/>
+      <c r="G1919">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:7" ht="15.75">
+      <c r="A1920" s="7"/>
+      <c r="B1920" s="7"/>
+      <c r="C1920" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1920" s="7"/>
+      <c r="F1920" s="7"/>
+      <c r="G1920">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:7" ht="15.75">
+      <c r="A1921" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1921" s="7">
+        <v>6</v>
+      </c>
+      <c r="C1921" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1921" s="7"/>
+      <c r="E1921" s="7"/>
+      <c r="F1921" s="7"/>
+      <c r="G1921">
+        <f t="shared" si="126"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:7" ht="15.75">
+      <c r="A1922" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1922" s="7">
+        <v>5</v>
+      </c>
+      <c r="C1922" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1922" s="7"/>
+      <c r="E1922" s="7"/>
+      <c r="F1922" s="7"/>
+      <c r="G1922">
+        <f t="shared" si="126"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:7" ht="15.75">
+      <c r="A1923" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1923" s="7">
+        <v>4</v>
+      </c>
+      <c r="C1923" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1923" s="7"/>
+      <c r="E1923" s="7"/>
+      <c r="F1923" s="7"/>
+      <c r="G1923">
+        <f t="shared" si="126"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:7" ht="15.75">
+      <c r="A1924" s="7"/>
+      <c r="B1924" s="7"/>
+      <c r="C1924" s="7"/>
+      <c r="D1924" s="7"/>
+      <c r="E1924" s="7"/>
+      <c r="F1924" s="7"/>
+      <c r="G1924">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:7" ht="15.75">
+      <c r="A1925" s="7"/>
+      <c r="B1925" s="7"/>
+      <c r="C1925" s="7"/>
+      <c r="D1925" s="7"/>
+      <c r="E1925" s="7"/>
+      <c r="F1925" s="7"/>
+      <c r="G1925">
+        <f>(B1925 - E1925)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:7" ht="15.75">
+      <c r="A1926" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1926" s="7">
+        <v>18</v>
+      </c>
+      <c r="C1926" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1926" s="7"/>
+      <c r="E1926" s="7"/>
+      <c r="F1926" s="7"/>
+      <c r="G1926">
+        <f t="shared" ref="G1926:G1937" si="127">(B1926 - E1926)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:7" ht="15.75">
+      <c r="A1927" s="7"/>
+      <c r="B1927" s="7"/>
+      <c r="C1927" s="7"/>
+      <c r="D1927" s="7"/>
+      <c r="E1927" s="7"/>
+      <c r="F1927" s="7"/>
+      <c r="G1927">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:7" ht="15.75">
+      <c r="B1928" s="7"/>
+      <c r="E1928" s="7"/>
+      <c r="F1928" s="7"/>
+      <c r="G1928">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:7" ht="15.75">
+      <c r="A1929" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1929" s="7">
+        <v>6</v>
+      </c>
+      <c r="C1929" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1929" s="7"/>
+      <c r="E1929" s="7"/>
+      <c r="F1929" s="7"/>
+      <c r="G1929">
+        <f t="shared" si="127"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:7" ht="15.75">
+      <c r="A1930" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1930" s="7">
+        <v>8</v>
+      </c>
+      <c r="C1930" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1930" s="7"/>
+      <c r="E1930" s="7"/>
+      <c r="F1930" s="7"/>
+      <c r="G1930">
+        <f t="shared" si="127"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:7" ht="15.75">
+      <c r="A1931" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1931" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1931" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1931" s="7"/>
+      <c r="E1931" s="7"/>
+      <c r="F1931" s="7"/>
+      <c r="G1931" t="e">
+        <f t="shared" si="127"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:7" ht="15.75">
+      <c r="A1932" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1932" s="7">
+        <v>35</v>
+      </c>
+      <c r="C1932" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1932" s="7"/>
+      <c r="E1932" s="7"/>
+      <c r="F1932" s="7"/>
+      <c r="G1932">
+        <f t="shared" si="127"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:7" ht="15.75">
+      <c r="A1933" s="7"/>
+      <c r="B1933" s="7"/>
+      <c r="C1933" s="7"/>
+      <c r="D1933" s="7"/>
+      <c r="E1933" s="7"/>
+      <c r="F1933" s="7"/>
+      <c r="G1933">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:7" ht="15.75">
+      <c r="A1934" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1934" s="7">
+        <v>10</v>
+      </c>
+      <c r="C1934" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1934" s="7"/>
+      <c r="E1934" s="7"/>
+      <c r="F1934" s="7"/>
+      <c r="G1934">
+        <f t="shared" si="127"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:7" ht="15.75">
+      <c r="A1935" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1935" s="7">
+        <v>7</v>
+      </c>
+      <c r="C1935" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1935" s="7"/>
+      <c r="E1935" s="7"/>
+      <c r="F1935" s="7"/>
+      <c r="G1935">
+        <f t="shared" si="127"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:7" ht="15.75">
+      <c r="A1936" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1936" s="7">
+        <v>6</v>
+      </c>
+      <c r="C1936" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1936" s="7"/>
+      <c r="E1936" s="7"/>
+      <c r="F1936" s="7"/>
+      <c r="G1936">
+        <f t="shared" si="127"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:7" ht="15.75">
+      <c r="A1937" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1937" s="7">
+        <v>12</v>
+      </c>
+      <c r="C1937" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1937" s="7"/>
+      <c r="E1937" s="7"/>
+      <c r="F1937" s="7"/>
+      <c r="G1937">
+        <f t="shared" si="127"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:7" ht="15.75">
+      <c r="A1938" s="7"/>
+      <c r="B1938" s="7"/>
+      <c r="C1938" s="7"/>
+      <c r="D1938" s="7"/>
+      <c r="E1938" s="7"/>
+      <c r="F1938" s="7"/>
+    </row>
+    <row r="1939" spans="1:7" ht="15.75">
+      <c r="A1939" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1939" s="7">
+        <v>2</v>
+      </c>
+      <c r="C1939" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1939" s="7"/>
+      <c r="F1939" s="7"/>
+      <c r="G1939">
+        <f t="shared" ref="G1939:G1940" si="128">(B1939 - E1939)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:7" ht="15.75">
+      <c r="A1940" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1940" s="7">
+        <v>1</v>
+      </c>
+      <c r="C1940" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1940" s="7"/>
+      <c r="F1940" s="7"/>
+      <c r="G1940">
+        <f t="shared" si="128"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:7" ht="15.75">
+      <c r="A1941" s="7"/>
+      <c r="B1941" s="7"/>
+      <c r="C1941" s="7"/>
+      <c r="E1941" s="7"/>
+      <c r="F1941" s="7"/>
+    </row>
+    <row r="1942" spans="1:7" ht="15.75">
+      <c r="A1942" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1942" s="7"/>
+      <c r="C1942" s="7"/>
+      <c r="E1942" s="7"/>
+      <c r="F1942" s="7"/>
+    </row>
+    <row r="1943" spans="1:7" ht="15.75">
+      <c r="B1943" s="7"/>
+      <c r="C1943" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1943" s="7"/>
+      <c r="E1943" s="7"/>
+      <c r="F1943" s="7"/>
+      <c r="G1943">
+        <f t="shared" ref="G1943:G1980" si="129">(B1943 - E1943)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:7" ht="15.75">
+      <c r="A1944" s="7">
+        <v>1</v>
+      </c>
+      <c r="B1944" s="7">
+        <v>976.5</v>
+      </c>
+      <c r="C1944" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1944" s="7"/>
+      <c r="E1944" s="7"/>
+      <c r="F1944" s="7"/>
+      <c r="G1944">
+        <f t="shared" si="129"/>
+        <v>976.5</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:7" ht="15.75">
+      <c r="A1945" s="7">
+        <v>2</v>
+      </c>
+      <c r="B1945" s="7">
+        <v>379.9</v>
+      </c>
+      <c r="C1945" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1945" s="7"/>
+      <c r="F1945" s="7"/>
+      <c r="G1945">
+        <f t="shared" si="129"/>
+        <v>379.9</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:7" ht="15.75">
+      <c r="A1946" s="7">
+        <v>3</v>
+      </c>
+      <c r="B1946" s="7">
+        <v>724.9</v>
+      </c>
+      <c r="C1946" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1946" s="7"/>
+      <c r="E1946" s="7"/>
+      <c r="F1946" s="7"/>
+      <c r="G1946">
+        <f t="shared" si="129"/>
+        <v>724.9</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:7" ht="15.75">
+      <c r="A1947" s="7">
+        <v>4</v>
+      </c>
+      <c r="B1947" s="7">
+        <v>1572</v>
+      </c>
+      <c r="C1947" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1947" s="7"/>
+      <c r="E1947" s="7"/>
+      <c r="F1947" s="7"/>
+      <c r="G1947">
+        <f t="shared" si="129"/>
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:7" ht="15.75">
+      <c r="A1948" s="7">
+        <v>5</v>
+      </c>
+      <c r="B1948" s="7">
+        <v>1510.6</v>
+      </c>
+      <c r="C1948" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1948" s="7"/>
+      <c r="E1948" s="7"/>
+      <c r="F1948" s="7"/>
+      <c r="G1948">
+        <f t="shared" si="129"/>
+        <v>1510.6</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:7" ht="15.75">
+      <c r="A1949" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1949" s="7">
+        <v>2515.6999999999998</v>
+      </c>
+      <c r="C1949" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1949" s="7"/>
+      <c r="E1949" s="7"/>
+      <c r="F1949" s="11"/>
+      <c r="G1949">
+        <f t="shared" si="129"/>
+        <v>2515.6999999999998</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:7" ht="15.75">
+      <c r="A1950" s="7">
+        <v>7</v>
+      </c>
+      <c r="B1950" s="7">
+        <v>1570.7</v>
+      </c>
+      <c r="C1950" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1950" s="7"/>
+      <c r="E1950" s="7"/>
+      <c r="F1950" s="11"/>
+      <c r="G1950">
+        <f t="shared" si="129"/>
+        <v>1570.7</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:7" ht="15.75">
+      <c r="A1951" s="7">
+        <v>8</v>
+      </c>
+      <c r="B1951" s="7">
+        <v>1779.7</v>
+      </c>
+      <c r="C1951" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1951" s="10"/>
+      <c r="E1951" s="7"/>
+      <c r="F1951" s="10"/>
+      <c r="G1951">
+        <f t="shared" si="129"/>
+        <v>1779.7</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:7" ht="15.75">
+      <c r="A1952" s="7">
+        <v>9</v>
+      </c>
+      <c r="B1952" s="7">
+        <v>1548.3</v>
+      </c>
+      <c r="C1952" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1952" s="7"/>
+      <c r="E1952" s="7"/>
+      <c r="F1952" s="7"/>
+      <c r="G1952">
+        <f t="shared" si="129"/>
+        <v>1548.3</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:7" ht="15.75">
+      <c r="A1953" s="7">
+        <v>10</v>
+      </c>
+      <c r="B1953" s="7">
+        <v>527.9</v>
+      </c>
+      <c r="C1953" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1953" s="7"/>
+      <c r="E1953" s="7"/>
+      <c r="F1953" s="7"/>
+      <c r="G1953">
+        <f t="shared" si="129"/>
+        <v>527.9</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:7" ht="15.75">
+      <c r="A1954" s="7">
+        <v>11</v>
+      </c>
+      <c r="B1954" s="7">
+        <v>2778.1</v>
+      </c>
+      <c r="C1954" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1954" s="7"/>
+      <c r="E1954" s="7"/>
+      <c r="F1954" s="11"/>
+      <c r="G1954">
+        <f t="shared" si="129"/>
+        <v>2778.1</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:7" ht="15.75">
+      <c r="A1955" s="7">
+        <v>12</v>
+      </c>
+      <c r="B1955" s="7">
+        <v>402.7</v>
+      </c>
+      <c r="C1955" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1955" s="7"/>
+      <c r="E1955" s="7"/>
+      <c r="F1955" s="7"/>
+      <c r="G1955">
+        <f t="shared" si="129"/>
+        <v>402.7</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:7" ht="15.75">
+      <c r="A1956" s="7">
+        <v>13</v>
+      </c>
+      <c r="B1956" s="7">
+        <v>819</v>
+      </c>
+      <c r="C1956" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1956" s="7"/>
+      <c r="E1956" s="7"/>
+      <c r="F1956" s="7"/>
+      <c r="G1956">
+        <f t="shared" si="129"/>
+        <v>819</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:7" ht="15.75">
+      <c r="A1957" s="7">
+        <v>14</v>
+      </c>
+      <c r="B1957" s="7">
+        <v>918.7</v>
+      </c>
+      <c r="C1957" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1957" s="7"/>
+      <c r="E1957" s="7"/>
+      <c r="F1957" s="7"/>
+      <c r="G1957">
+        <f t="shared" si="129"/>
+        <v>918.7</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:7" ht="15.75">
+      <c r="A1958" s="7">
+        <v>15</v>
+      </c>
+      <c r="B1958" s="7">
+        <v>362.1</v>
+      </c>
+      <c r="C1958" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1958" s="7"/>
+      <c r="E1958" s="7"/>
+      <c r="F1958" s="7"/>
+      <c r="G1958">
+        <f t="shared" si="129"/>
+        <v>362.1</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:7" ht="15.75">
+      <c r="A1959" s="7">
+        <v>16</v>
+      </c>
+      <c r="B1959" s="7">
+        <v>781.8</v>
+      </c>
+      <c r="C1959" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1959" s="7"/>
+      <c r="E1959" s="7"/>
+      <c r="F1959" s="7"/>
+      <c r="G1959">
+        <f t="shared" si="129"/>
+        <v>781.8</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:7" ht="15.75">
+      <c r="A1960" s="7">
+        <v>17</v>
+      </c>
+      <c r="B1960" s="7">
+        <v>607.6</v>
+      </c>
+      <c r="C1960" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1960" s="7"/>
+      <c r="E1960" s="7"/>
+      <c r="F1960" s="11"/>
+      <c r="G1960">
+        <f t="shared" si="129"/>
+        <v>607.6</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:7" ht="15.75">
+      <c r="A1961" s="7">
+        <v>18</v>
+      </c>
+      <c r="B1961" s="10">
+        <v>323.39999999999998</v>
+      </c>
+      <c r="C1961" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1961" s="7"/>
+      <c r="E1961" s="10"/>
+      <c r="F1961" s="7"/>
+      <c r="G1961">
+        <f t="shared" si="129"/>
+        <v>323.39999999999998</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:7" ht="15.75">
+      <c r="A1962" s="7">
+        <v>19</v>
+      </c>
+      <c r="B1962" s="7">
+        <v>2887.1</v>
+      </c>
+      <c r="C1962" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1962" s="7"/>
+      <c r="E1962" s="7"/>
+      <c r="F1962" s="7"/>
+      <c r="G1962">
+        <f t="shared" si="129"/>
+        <v>2887.1</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:7" ht="15.75">
+      <c r="A1963" s="7">
+        <v>20</v>
+      </c>
+      <c r="B1963" s="7">
+        <v>1060.0999999999999</v>
+      </c>
+      <c r="C1963" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1963" s="7"/>
+      <c r="E1963" s="7"/>
+      <c r="F1963" s="11"/>
+      <c r="G1963">
+        <f t="shared" si="129"/>
+        <v>1060.0999999999999</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:7" ht="15.75">
+      <c r="A1964" s="7">
+        <v>21</v>
+      </c>
+      <c r="B1964" s="7">
+        <v>234.7</v>
+      </c>
+      <c r="C1964" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1964" s="7"/>
+      <c r="E1964" s="7"/>
+      <c r="F1964" s="7"/>
+      <c r="G1964">
+        <f t="shared" si="129"/>
+        <v>234.7</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:7" ht="15.75">
+      <c r="A1965" s="7">
+        <v>22</v>
+      </c>
+      <c r="B1965" s="7">
+        <v>1777.1</v>
+      </c>
+      <c r="C1965" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1965" s="7"/>
+      <c r="E1965" s="7"/>
+      <c r="F1965" s="7"/>
+      <c r="G1965">
+        <f t="shared" si="129"/>
+        <v>1777.1</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:7" ht="15.75">
+      <c r="A1966" s="7">
+        <v>23</v>
+      </c>
+      <c r="B1966" s="7">
+        <v>1154.4000000000001</v>
+      </c>
+      <c r="C1966" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1966" s="7"/>
+      <c r="E1966" s="7"/>
+      <c r="F1966" s="7"/>
+      <c r="G1966">
+        <f t="shared" si="129"/>
+        <v>1154.4000000000001</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:7" ht="15.75">
+      <c r="A1967" s="7">
+        <v>24</v>
+      </c>
+      <c r="B1967" s="7">
+        <v>1312.5</v>
+      </c>
+      <c r="C1967" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1967" s="12"/>
+      <c r="E1967" s="7"/>
+      <c r="F1967" s="11"/>
+      <c r="G1967">
+        <f t="shared" si="129"/>
+        <v>1312.5</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:7" ht="15.75">
+      <c r="A1968" s="7">
+        <v>25</v>
+      </c>
+      <c r="B1968" s="7">
+        <v>789.2</v>
+      </c>
+      <c r="C1968" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1968" s="7"/>
+      <c r="E1968" s="7"/>
+      <c r="F1968" s="7"/>
+      <c r="G1968">
+        <f t="shared" si="129"/>
+        <v>789.2</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:7" ht="15.75">
+      <c r="A1969" s="7">
+        <v>26</v>
+      </c>
+      <c r="B1969" s="7">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="C1969" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1969" s="7"/>
+      <c r="E1969" s="7"/>
+      <c r="F1969" s="7"/>
+      <c r="G1969">
+        <f t="shared" si="129"/>
+        <v>131.30000000000001</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:7" ht="15.75">
+      <c r="A1970" s="7">
+        <v>27</v>
+      </c>
+      <c r="B1970" s="7">
+        <v>1077.5999999999999</v>
+      </c>
+      <c r="C1970" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1970" s="7"/>
+      <c r="E1970" s="7"/>
+      <c r="F1970" s="11"/>
+      <c r="G1970">
+        <f t="shared" si="129"/>
+        <v>1077.5999999999999</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:7" ht="15.75">
+      <c r="A1971" s="7">
+        <v>28</v>
+      </c>
+      <c r="B1971" s="7">
+        <v>2675.7</v>
+      </c>
+      <c r="C1971" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1971" s="7"/>
+      <c r="E1971" s="7"/>
+      <c r="F1971" s="7"/>
+      <c r="G1971">
+        <f t="shared" si="129"/>
+        <v>2675.7</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:7" ht="15.75">
+      <c r="A1972" s="7">
+        <v>29</v>
+      </c>
+      <c r="B1972" s="7">
+        <v>2477.9</v>
+      </c>
+      <c r="C1972" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1972" s="7"/>
+      <c r="E1972" s="7"/>
+      <c r="F1972" s="7"/>
+      <c r="G1972">
+        <f t="shared" si="129"/>
+        <v>2477.9</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:7" ht="15.75">
+      <c r="A1973" s="7">
+        <v>30</v>
+      </c>
+      <c r="B1973" s="7">
+        <v>3651.8</v>
+      </c>
+      <c r="C1973" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1973" s="7"/>
+      <c r="E1973" s="7"/>
+      <c r="F1973" s="7"/>
+      <c r="G1973">
+        <f t="shared" si="129"/>
+        <v>3651.8</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:7" ht="15.75">
+      <c r="A1974" s="7">
+        <v>31</v>
+      </c>
+      <c r="B1974" s="7">
+        <v>1091.7</v>
+      </c>
+      <c r="C1974" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1974" s="8"/>
+      <c r="E1974" s="7"/>
+      <c r="G1974">
+        <f t="shared" si="129"/>
+        <v>1091.7</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:7" ht="15.75">
+      <c r="A1975" s="7">
+        <v>32</v>
+      </c>
+      <c r="B1975" s="7">
+        <v>317.60000000000002</v>
+      </c>
+      <c r="C1975" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1975" s="7"/>
+      <c r="F1975" s="8"/>
+      <c r="G1975">
+        <f t="shared" si="129"/>
+        <v>317.60000000000002</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:7" ht="15.75">
+      <c r="A1976" s="7">
+        <v>34</v>
+      </c>
+      <c r="B1976" s="7">
+        <v>2574.8000000000002</v>
+      </c>
+      <c r="C1976" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1976" s="7"/>
+      <c r="F1976" s="11"/>
+      <c r="G1976" s="7">
+        <f t="shared" si="129"/>
+        <v>2574.8000000000002</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:7" ht="15.75">
+      <c r="A1977" s="7">
+        <v>35</v>
+      </c>
+      <c r="B1977" s="7">
+        <v>3349</v>
+      </c>
+      <c r="C1977" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1977" s="8"/>
+      <c r="E1977" s="7"/>
+      <c r="F1977" s="11"/>
+      <c r="G1977" s="7">
+        <f t="shared" si="129"/>
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:7" ht="15.75">
+      <c r="A1978" s="7">
+        <v>36</v>
+      </c>
+      <c r="B1978" s="7">
+        <v>237</v>
+      </c>
+      <c r="C1978" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1978" s="7"/>
+      <c r="G1978" s="7">
+        <f t="shared" si="129"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:7" ht="15.75">
+      <c r="A1979" s="7">
+        <v>37</v>
+      </c>
+      <c r="B1979" s="7">
+        <v>1039.4000000000001</v>
+      </c>
+      <c r="C1979" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1979" s="7"/>
+      <c r="F1979" s="11"/>
+      <c r="G1979" s="7">
+        <f t="shared" si="129"/>
+        <v>1039.4000000000001</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:7" ht="15.75">
+      <c r="A1980" s="7">
+        <v>38</v>
+      </c>
+      <c r="B1980" s="7">
+        <v>2438.3000000000002</v>
+      </c>
+      <c r="C1980" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1980" s="7"/>
+      <c r="F1980" s="11"/>
+      <c r="G1980" s="7">
+        <f t="shared" si="129"/>
+        <v>2438.3000000000002</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:7" ht="15.75">
+      <c r="A1981" s="7"/>
+      <c r="B1981" s="7"/>
+      <c r="C1981" s="7"/>
+      <c r="E1981" s="7"/>
+      <c r="F1981" s="11"/>
+      <c r="G1981" s="7"/>
+    </row>
+    <row r="1982" spans="1:7" ht="15.75">
+      <c r="A1982" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1982" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1982" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1982" s="10"/>
+      <c r="E1982" s="10"/>
+      <c r="F1982" s="10"/>
+      <c r="G1982" t="e">
+        <f t="shared" ref="G1982:G1985" si="130">(B1982 - E1982)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:7" ht="15.75">
+      <c r="A1983" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1983" s="7">
+        <v>56</v>
+      </c>
+      <c r="C1983" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1983" s="7"/>
+      <c r="E1983" s="7"/>
+      <c r="F1983" s="7"/>
+      <c r="G1983">
+        <f t="shared" si="130"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:7" ht="15.75">
+      <c r="A1984" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1984" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1984" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1984" s="7"/>
+      <c r="E1984" s="7"/>
+      <c r="F1984" s="7"/>
+      <c r="G1984" t="e">
+        <f t="shared" si="130"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:7" ht="15.75">
+      <c r="A1985" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1985" s="7">
+        <v>13</v>
+      </c>
+      <c r="C1985" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1985" s="7"/>
+      <c r="F1985" s="11"/>
+      <c r="G1985" s="7">
+        <f t="shared" si="130"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:7" ht="15.75">
+      <c r="A1986" s="7"/>
+      <c r="B1986" s="7"/>
+      <c r="C1986" s="7"/>
+      <c r="E1986" s="7"/>
+      <c r="F1986" s="11"/>
+      <c r="G1986" s="7"/>
+    </row>
+    <row r="1987" spans="1:7" ht="15.75">
+      <c r="A1987" s="7"/>
+      <c r="B1987" s="7"/>
+      <c r="C1987" s="7"/>
+      <c r="E1987" s="7"/>
+      <c r="F1987" s="11"/>
+      <c r="G1987" s="7"/>
+    </row>
+    <row r="1988" spans="1:7" ht="15.75">
+      <c r="A1988" s="7"/>
+      <c r="B1988" s="3"/>
+      <c r="C1988" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1988" s="3"/>
+      <c r="E1988" s="3"/>
+      <c r="F1988" s="3"/>
+      <c r="G1988">
+        <f t="shared" ref="G1988:G2007" si="131">(B1988 - E1988)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:7" ht="15.75">
+      <c r="A1989" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1989" s="10">
+        <v>2250</v>
+      </c>
+      <c r="C1989" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1989" s="10"/>
+      <c r="E1989" s="10"/>
+      <c r="F1989" s="10"/>
+      <c r="G1989" s="13">
+        <f t="shared" si="131"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:7" ht="15.75">
+      <c r="A1990" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1990" s="10">
+        <v>2042</v>
+      </c>
+      <c r="C1990" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1990" s="10"/>
+      <c r="E1990" s="10"/>
+      <c r="F1990" s="10"/>
+      <c r="G1990" s="13">
+        <f t="shared" si="131"/>
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:7" ht="15.75">
+      <c r="A1991" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1991" s="11"/>
+      <c r="C1991" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1991" s="14"/>
+      <c r="E1991" s="11"/>
+      <c r="F1991" s="14"/>
+      <c r="G1991" s="14">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:7" ht="15.75">
+      <c r="A1992" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1992" s="11"/>
+      <c r="C1992" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1992" s="14"/>
+      <c r="E1992" s="11"/>
+      <c r="F1992" s="14"/>
+      <c r="G1992" s="14">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:7" ht="15.75">
+      <c r="A1993" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1993" s="7">
+        <v>1050</v>
+      </c>
+      <c r="C1993" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1993" s="7"/>
+      <c r="G1993">
+        <f t="shared" si="131"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:7" ht="15.75">
+      <c r="A1994" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1994" s="7">
+        <v>2037</v>
+      </c>
+      <c r="C1994" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1994" s="7"/>
+      <c r="F1994" s="7"/>
+      <c r="G1994">
+        <f t="shared" si="131"/>
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:7" ht="15.75">
+      <c r="A1995" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1995" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C1995" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1995" s="7"/>
+      <c r="E1995" s="7"/>
+      <c r="G1995">
+        <f t="shared" si="131"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:7" ht="15.75">
+      <c r="A1996" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1996" s="7">
+        <v>2250</v>
+      </c>
+      <c r="C1996" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1996" s="7"/>
+      <c r="E1996" s="7"/>
+      <c r="F1996" s="7"/>
+      <c r="G1996">
+        <f t="shared" si="131"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:7" ht="15.75">
+      <c r="A1997" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1997" s="7">
+        <v>4350</v>
+      </c>
+      <c r="C1997" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1997" s="7"/>
+      <c r="G1997">
+        <f t="shared" si="131"/>
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:7" ht="15.75">
+      <c r="A1998" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1998" s="7">
+        <v>4350</v>
+      </c>
+      <c r="C1998" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1998" s="7"/>
+      <c r="E1998" s="7"/>
+      <c r="F1998" s="7"/>
+      <c r="G1998">
+        <f t="shared" si="131"/>
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:7" ht="15.75">
+      <c r="A1999" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1999" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C1999" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1999" s="7"/>
+      <c r="E1999" s="7"/>
+      <c r="F1999" s="7"/>
+      <c r="G1999">
+        <f t="shared" si="131"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:7" ht="15.75">
+      <c r="A2000" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2000" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C2000" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2000" s="7"/>
+      <c r="E2000" s="7"/>
+      <c r="F2000" s="7"/>
+      <c r="G2000">
+        <f t="shared" si="131"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:7" ht="15.75">
+      <c r="A2001" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2001" s="7">
+        <v>3450</v>
+      </c>
+      <c r="C2001" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2001" s="7"/>
+      <c r="E2001" s="7"/>
+      <c r="F2001" s="7"/>
+      <c r="G2001">
+        <f t="shared" si="131"/>
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:7" ht="15.75">
+      <c r="A2002" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2002" s="7">
+        <v>2256</v>
+      </c>
+      <c r="C2002" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2002" s="7"/>
+      <c r="F2002" s="7"/>
+      <c r="G2002">
+        <f t="shared" si="131"/>
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:7" ht="15.75">
+      <c r="A2003" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2003" s="10">
+        <v>2400</v>
+      </c>
+      <c r="C2003" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2003" s="10"/>
+      <c r="E2003" s="10"/>
+      <c r="F2003" s="10"/>
+      <c r="G2003" s="13">
+        <f t="shared" si="131"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:7" ht="15.75">
+      <c r="A2004" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2004" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2004" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2004" s="10"/>
+      <c r="E2004" s="10"/>
+      <c r="F2004" s="10"/>
+      <c r="G2004" s="13" t="e">
+        <f t="shared" si="131"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:7" ht="15.75">
+      <c r="A2005" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2005" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2005" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2005" s="10"/>
+      <c r="E2005" s="10"/>
+      <c r="F2005" s="10"/>
+      <c r="G2005" s="13" t="e">
+        <f t="shared" si="131"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:7" ht="15.75">
+      <c r="A2006" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2006" s="7">
+        <v>2058</v>
+      </c>
+      <c r="C2006" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2006" s="7"/>
+      <c r="E2006" s="7"/>
+      <c r="F2006" s="7"/>
+      <c r="G2006">
+        <f t="shared" si="131"/>
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:7" ht="15.75">
+      <c r="A2007" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2007" s="10">
+        <v>2400</v>
+      </c>
+      <c r="C2007" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2007" s="7"/>
+      <c r="E2007" s="10"/>
+      <c r="F2007" s="7"/>
+      <c r="G2007">
+        <f t="shared" si="131"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:7" ht="15.75">
+      <c r="A2008" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2008" s="7">
+        <v>2432</v>
+      </c>
+      <c r="C2008" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2008" s="7"/>
+      <c r="E2008" s="7"/>
+      <c r="F2008" s="7"/>
+      <c r="G2008" t="e">
+        <f>(B2008 -#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:7" ht="15.75">
+      <c r="A2009" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2009" s="7">
+        <v>4650</v>
+      </c>
+      <c r="C2009" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2009" s="7"/>
+      <c r="F2009" s="8"/>
+      <c r="G2009">
+        <f t="shared" ref="G2009:G2015" si="132">(B2009 - E2009)</f>
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:7" ht="15.75">
+      <c r="A2010" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2010" s="10">
+        <v>2800</v>
+      </c>
+      <c r="C2010" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2010" s="10"/>
+      <c r="G2010">
+        <f t="shared" si="132"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:7" ht="15.75">
+      <c r="A2011" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2011" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2011" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2011" s="7"/>
+      <c r="E2011" s="7"/>
+      <c r="F2011" s="7"/>
+      <c r="G2011" t="e">
+        <f t="shared" si="132"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:7" ht="15.75">
+      <c r="A2012" s="15"/>
+      <c r="B2012" s="16"/>
+      <c r="C2012" s="15"/>
+      <c r="D2012" s="16"/>
+      <c r="E2012" s="16"/>
+      <c r="F2012" s="16"/>
+      <c r="G2012">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:7" ht="15.75">
+      <c r="A2013" s="7"/>
+      <c r="C2013" s="7"/>
+      <c r="D2013" s="7"/>
+      <c r="F2013" s="7"/>
+      <c r="G2013">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:7" ht="15.75">
+      <c r="A2014" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2014" s="7">
+        <v>20</v>
+      </c>
+      <c r="C2014" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2014" s="7"/>
+      <c r="E2014" s="7"/>
+      <c r="F2014" s="7"/>
+      <c r="G2014">
+        <f t="shared" si="132"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:7" ht="15.75">
+      <c r="A2015" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2015" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2015" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2015" s="17"/>
+      <c r="E2015" s="17"/>
+      <c r="F2015" s="7"/>
+      <c r="G2015" t="e">
+        <f t="shared" si="132"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:7" ht="15.75">
+      <c r="A2016" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2016" s="17">
+        <v>14</v>
+      </c>
+      <c r="C2016" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2016" s="17"/>
+      <c r="E2016" s="17"/>
+      <c r="F2016" s="7"/>
+    </row>
+    <row r="2017" spans="1:7" ht="15.75">
+      <c r="A2017" s="18"/>
+      <c r="B2017" s="17"/>
+      <c r="C2017" s="18"/>
+      <c r="D2017" s="18"/>
+      <c r="E2017" s="17"/>
+      <c r="F2017" s="17"/>
+      <c r="G2017">
+        <f t="shared" ref="G2017:G2018" si="133">(B2017 - E2017)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:7" ht="15.75">
+      <c r="A2018" s="7"/>
+      <c r="B2018" s="7"/>
+      <c r="C2018" s="7"/>
+      <c r="E2018" s="7"/>
+      <c r="G2018">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:7" ht="15.75">
+      <c r="A2019" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2019" s="7">
+        <v>5</v>
+      </c>
+      <c r="C2019" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2019" s="7"/>
+      <c r="E2019" s="7"/>
+      <c r="F2019" s="7"/>
+      <c r="G2019" t="e">
+        <f>(E2019 -#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:7" ht="15.75">
+      <c r="B2020" s="7"/>
+      <c r="E2020" s="7"/>
+      <c r="G2020">
+        <f t="shared" ref="G2020:G2032" si="134">(B2020 - E2020)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:7">
+      <c r="C2021" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2021">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:7">
+      <c r="A2022" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2022">
+        <v>0</v>
+      </c>
+      <c r="C2022" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2022">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:7">
+      <c r="A2023" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2023">
+        <v>5</v>
+      </c>
+      <c r="C2023" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2023">
+        <f t="shared" si="134"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:7">
+      <c r="G2024">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:7">
+      <c r="A2025" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2025">
+        <v>6</v>
+      </c>
+      <c r="C2025" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2025">
+        <f t="shared" si="134"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:7">
+      <c r="A2026" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2026">
+        <v>6</v>
+      </c>
+      <c r="C2026" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2026">
+        <f t="shared" si="134"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:7">
+      <c r="A2027" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2027">
+        <v>8</v>
+      </c>
+      <c r="C2027" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2027">
+        <f t="shared" si="134"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:7">
+      <c r="A2028" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2028">
+        <v>10</v>
+      </c>
+      <c r="C2028" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2028">
+        <f t="shared" si="134"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:7">
+      <c r="A2029" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2029">
+        <v>11</v>
+      </c>
+      <c r="C2029" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2029">
+        <f t="shared" si="134"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:7">
+      <c r="G2030">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:7">
+      <c r="A2031" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2031">
+        <v>9</v>
+      </c>
+      <c r="C2031" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2031">
+        <f t="shared" si="134"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:7">
+      <c r="A2032" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2032">
+        <v>9</v>
+      </c>
+      <c r="C2032" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2032">
+        <f t="shared" si="134"/>
         <v>9</v>
       </c>
     </row>
